--- a/gametabledata/localizationdata.xlsx
+++ b/gametabledata/localizationdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,30 +57,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>@</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>setting nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>닉네임을 입력 해 주세요</t>
   </si>
   <si>
@@ -88,24 +68,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>input nickname</t>
+    <t>게스트 로그인</t>
+  </si>
+  <si>
+    <t>구글 로그인</t>
+  </si>
+  <si>
+    <t>Http 통신중 입니다</t>
+  </si>
+  <si>
+    <t>알림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게스트 로그인</t>
-  </si>
-  <si>
-    <t>구글 로그인</t>
-  </si>
-  <si>
-    <t>Http 통신중 입니다</t>
-  </si>
-  <si>
-    <t>guest login</t>
+    <t>에러</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>google login</t>
+    <t>Notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guest login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -219,6 +267,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C607"/>
+  <dimension ref="A1:C613"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -521,7 +572,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -532,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -543,7 +594,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -554,7 +605,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -565,153 +616,199 @@
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="31.2" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
-        <v>1001</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
-        <v>1002</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
-        <v>1003</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>10001</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
+      <c r="C10" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="5">
-        <v>10002</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="A13" s="4">
+        <v>1001</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="4">
+        <v>1003</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>10001</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <v>10002</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
         <v>10003</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C18" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="4">
+        <v>10004</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="4">
+        <v>10005</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
@@ -719,21 +816,21 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" s="1"/>
@@ -747,25 +844,25 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B46" s="1"/>
@@ -775,21 +872,21 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52" s="1"/>
@@ -835,9 +932,9 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B64" s="1"/>
@@ -847,17 +944,17 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="3"/>
@@ -867,9 +964,9 @@
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="3"/>
@@ -879,77 +976,77 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
@@ -963,17 +1060,17 @@
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B98" s="1"/>
@@ -987,13 +1084,13 @@
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="3"/>
@@ -1003,65 +1100,65 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B120" s="1"/>
@@ -1079,41 +1176,41 @@
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B133" s="1"/>
@@ -1135,9 +1232,9 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B139" s="1"/>
@@ -1159,17 +1256,17 @@
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B147" s="1"/>
@@ -1199,9 +1296,9 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B155" s="1"/>
@@ -1215,45 +1312,45 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" s="3"/>
@@ -1283,21 +1380,21 @@
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B179" s="1"/>
@@ -1307,13 +1404,13 @@
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B183" s="1"/>
@@ -1327,9 +1424,9 @@
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B187" s="1"/>
@@ -1347,13 +1444,13 @@
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B193" s="1"/>
@@ -1375,49 +1472,49 @@
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B209" s="1"/>
@@ -1447,9 +1544,9 @@
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B217" s="1"/>
@@ -1467,9 +1564,9 @@
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B222" s="1"/>
@@ -1491,9 +1588,9 @@
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B228" s="1"/>
@@ -1559,9 +1656,9 @@
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B245" s="1"/>
@@ -1575,17 +1672,17 @@
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B251" s="1"/>
@@ -1599,25 +1696,25 @@
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B259" s="1"/>
@@ -1627,21 +1724,21 @@
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B265" s="1"/>
@@ -1695,9 +1792,9 @@
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B278" s="3"/>
-      <c r="C278" s="3"/>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B279" s="1"/>
@@ -1715,13 +1812,13 @@
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B283" s="3"/>
-      <c r="C283" s="3"/>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B285" s="1"/>
@@ -1739,9 +1836,9 @@
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B290" s="1"/>
@@ -1775,9 +1872,9 @@
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B298" s="3"/>
-      <c r="C298" s="3"/>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B299" s="1"/>
@@ -1799,21 +1896,21 @@
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B304" s="1"/>
-      <c r="C304" s="1"/>
-    </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B305" s="3"/>
-      <c r="C305" s="3"/>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B307" s="3"/>
-      <c r="C307" s="3"/>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B308" s="1"/>
@@ -1827,25 +1924,25 @@
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B311" s="1"/>
-      <c r="C311" s="1"/>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B315" s="3"/>
-      <c r="C315" s="3"/>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B316" s="1"/>
@@ -1875,9 +1972,9 @@
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B323" s="3"/>
-      <c r="C323" s="3"/>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B324" s="1"/>
@@ -1891,25 +1988,25 @@
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B327" s="1"/>
-      <c r="C327" s="1"/>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B331" s="3"/>
-      <c r="C331" s="3"/>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B332" s="1"/>
@@ -1931,9 +2028,9 @@
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B338" s="1"/>
@@ -1951,13 +2048,13 @@
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B342" s="3"/>
-      <c r="C342" s="3"/>
-    </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B343" s="3"/>
-      <c r="C343" s="3"/>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B344" s="1"/>
@@ -1975,13 +2072,13 @@
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
-    </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B350" s="1"/>
@@ -1999,9 +2096,9 @@
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B354" s="3"/>
-      <c r="C354" s="3"/>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B355" s="1"/>
@@ -2015,17 +2112,17 @@
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B358" s="3"/>
-      <c r="C358" s="3"/>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B360" s="3"/>
+      <c r="C360" s="3"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B361" s="1"/>
@@ -2055,37 +2152,37 @@
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B368" s="3"/>
-      <c r="C368" s="3"/>
-    </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B369" s="3"/>
-      <c r="C369" s="3"/>
-    </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B370" s="1"/>
-      <c r="C370" s="1"/>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B372" s="3"/>
-      <c r="C372" s="3"/>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
     </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B374" s="1"/>
-      <c r="C374" s="1"/>
-    </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B375" s="1"/>
-      <c r="C375" s="1"/>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B374" s="3"/>
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B375" s="3"/>
+      <c r="C375" s="3"/>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B376" s="1"/>
@@ -2099,17 +2196,17 @@
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
     </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B379" s="3"/>
-      <c r="C379" s="3"/>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
     </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B381" s="3"/>
-      <c r="C381" s="3"/>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B382" s="1"/>
@@ -2119,17 +2216,17 @@
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
     </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B384" s="1"/>
-      <c r="C384" s="1"/>
-    </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B385" s="1"/>
-      <c r="C385" s="1"/>
-    </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B386" s="3"/>
-      <c r="C386" s="3"/>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B384" s="3"/>
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B387" s="3"/>
@@ -2139,41 +2236,41 @@
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
     </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B389" s="3"/>
-      <c r="C389" s="3"/>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
     </row>
     <row r="390" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B391" s="3"/>
-      <c r="C391" s="3"/>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B392" s="1"/>
-      <c r="C392" s="1"/>
-    </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B393" s="1"/>
-      <c r="C393" s="1"/>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B395" s="1"/>
-      <c r="C395" s="1"/>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B395" s="3"/>
+      <c r="C395" s="3"/>
     </row>
     <row r="396" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B397" s="1"/>
-      <c r="C397" s="1"/>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B397" s="3"/>
+      <c r="C397" s="3"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B398" s="1"/>
@@ -2191,21 +2288,21 @@
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
     </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B402" s="3"/>
-      <c r="C402" s="3"/>
-    </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B403" s="3"/>
-      <c r="C403" s="3"/>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
     </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B405" s="3"/>
-      <c r="C405" s="3"/>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
     </row>
     <row r="406" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B406" s="1"/>
@@ -2215,21 +2312,21 @@
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B408" s="1"/>
-      <c r="C408" s="1"/>
-    </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B409" s="1"/>
-      <c r="C409" s="1"/>
-    </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B410" s="3"/>
-      <c r="C410" s="3"/>
-    </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B409" s="3"/>
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B411" s="3"/>
+      <c r="C411" s="3"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B412" s="1"/>
@@ -2243,13 +2340,13 @@
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B415" s="3"/>
-      <c r="C415" s="3"/>
-    </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B416" s="1"/>
-      <c r="C416" s="1"/>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B416" s="3"/>
+      <c r="C416" s="3"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B417" s="1"/>
@@ -2271,9 +2368,9 @@
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B422" s="3"/>
-      <c r="C422" s="3"/>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B423" s="1"/>
@@ -2291,9 +2388,9 @@
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
     </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B427" s="1"/>
-      <c r="C427" s="1"/>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B427" s="3"/>
+      <c r="C427" s="3"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B428" s="3"/>
@@ -2315,33 +2412,33 @@
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
     </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B433" s="3"/>
-      <c r="C433" s="3"/>
-    </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B434" s="1"/>
-      <c r="C434" s="1"/>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B433" s="1"/>
+      <c r="C433" s="1"/>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B434" s="3"/>
+      <c r="C434" s="3"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
     </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B436" s="3"/>
-      <c r="C436" s="3"/>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
     </row>
     <row r="437" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
     </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B438" s="3"/>
-      <c r="C438" s="3"/>
-    </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B439" s="1"/>
-      <c r="C439" s="1"/>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B439" s="3"/>
+      <c r="C439" s="3"/>
     </row>
     <row r="440" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B440" s="1"/>
@@ -2355,9 +2452,9 @@
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
     </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B443" s="3"/>
-      <c r="C443" s="3"/>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B444" s="3"/>
@@ -2375,17 +2472,17 @@
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
     </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B448" s="1"/>
-      <c r="C448" s="1"/>
-    </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B449" s="1"/>
-      <c r="C449" s="1"/>
-    </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B450" s="1"/>
-      <c r="C450" s="1"/>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B448" s="3"/>
+      <c r="C448" s="3"/>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B449" s="3"/>
+      <c r="C449" s="3"/>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B450" s="3"/>
+      <c r="C450" s="3"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B451" s="1"/>
@@ -2399,9 +2496,9 @@
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
     </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B454" s="3"/>
-      <c r="C454" s="3"/>
+    <row r="454" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B454" s="1"/>
+      <c r="C454" s="1"/>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B455" s="1"/>
@@ -2419,9 +2516,9 @@
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B459" s="3"/>
-      <c r="C459" s="3"/>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B459" s="1"/>
+      <c r="C459" s="1"/>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B460" s="3"/>
@@ -2431,9 +2528,9 @@
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
     </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B462" s="3"/>
-      <c r="C462" s="3"/>
+    <row r="462" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B462" s="1"/>
+      <c r="C462" s="1"/>
     </row>
     <row r="463" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B463" s="1"/>
@@ -2447,9 +2544,9 @@
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B466" s="1"/>
-      <c r="C466" s="1"/>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B466" s="3"/>
+      <c r="C466" s="3"/>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B467" s="1"/>
@@ -2463,25 +2560,25 @@
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B470" s="3"/>
-      <c r="C470" s="3"/>
-    </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B471" s="1"/>
-      <c r="C471" s="1"/>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+    </row>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B471" s="3"/>
+      <c r="C471" s="3"/>
     </row>
     <row r="472" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B473" s="3"/>
-      <c r="C473" s="3"/>
-    </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B474" s="1"/>
-      <c r="C474" s="1"/>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B473" s="1"/>
+      <c r="C473" s="1"/>
+    </row>
+    <row r="474" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B474" s="3"/>
+      <c r="C474" s="3"/>
     </row>
     <row r="475" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B475" s="1"/>
@@ -2499,21 +2596,21 @@
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B479" s="1"/>
-      <c r="C479" s="1"/>
-    </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B480" s="3"/>
-      <c r="C480" s="3"/>
-    </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B481" s="3"/>
-      <c r="C481" s="3"/>
-    </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B482" s="1"/>
-      <c r="C482" s="1"/>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B479" s="3"/>
+      <c r="C479" s="3"/>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B481" s="1"/>
+      <c r="C481" s="1"/>
+    </row>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B482" s="3"/>
+      <c r="C482" s="3"/>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B483" s="1"/>
@@ -2523,21 +2620,21 @@
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
     </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B485" s="3"/>
-      <c r="C485" s="3"/>
-    </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B486" s="1"/>
-      <c r="C486" s="1"/>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B486" s="3"/>
+      <c r="C486" s="3"/>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
     </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B488" s="3"/>
-      <c r="C488" s="3"/>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B489" s="1"/>
@@ -2559,9 +2656,9 @@
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
     </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B494" s="1"/>
-      <c r="C494" s="1"/>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B494" s="3"/>
+      <c r="C494" s="3"/>
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B495" s="1"/>
@@ -2571,9 +2668,9 @@
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
     </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B497" s="1"/>
-      <c r="C497" s="1"/>
+    <row r="497" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B497" s="3"/>
+      <c r="C497" s="3"/>
     </row>
     <row r="498" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B498" s="1"/>
@@ -2587,25 +2684,25 @@
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
     </row>
-    <row r="501" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B501" s="3"/>
-      <c r="C501" s="3"/>
+    <row r="501" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B501" s="1"/>
+      <c r="C501" s="1"/>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
     </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B503" s="3"/>
-      <c r="C503" s="3"/>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B503" s="1"/>
+      <c r="C503" s="1"/>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B505" s="1"/>
-      <c r="C505" s="1"/>
+    <row r="505" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B505" s="3"/>
+      <c r="C505" s="3"/>
     </row>
     <row r="506" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B506" s="1"/>
@@ -2623,13 +2720,13 @@
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
     </row>
-    <row r="510" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B510" s="3"/>
-      <c r="C510" s="3"/>
-    </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B511" s="3"/>
-      <c r="C511" s="3"/>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B510" s="1"/>
+      <c r="C510" s="1"/>
+    </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B511" s="1"/>
+      <c r="C511" s="1"/>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B512" s="1"/>
@@ -2643,33 +2740,33 @@
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
     </row>
-    <row r="515" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B515" s="1"/>
-      <c r="C515" s="1"/>
+    <row r="515" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B515" s="3"/>
+      <c r="C515" s="3"/>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
     </row>
-    <row r="517" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B517" s="1"/>
-      <c r="C517" s="1"/>
-    </row>
-    <row r="518" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B518" s="3"/>
-      <c r="C518" s="3"/>
-    </row>
-    <row r="519" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B519" s="1"/>
-      <c r="C519" s="1"/>
+    <row r="517" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B517" s="3"/>
+      <c r="C517" s="3"/>
+    </row>
+    <row r="518" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B518" s="1"/>
+      <c r="C518" s="1"/>
+    </row>
+    <row r="519" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B519" s="3"/>
+      <c r="C519" s="3"/>
     </row>
     <row r="520" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
     </row>
-    <row r="521" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B521" s="3"/>
-      <c r="C521" s="3"/>
+    <row r="521" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B521" s="1"/>
+      <c r="C521" s="1"/>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B522" s="3"/>
@@ -2691,21 +2788,21 @@
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
     </row>
-    <row r="527" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B527" s="1"/>
-      <c r="C527" s="1"/>
-    </row>
-    <row r="528" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B528" s="1"/>
-      <c r="C528" s="1"/>
-    </row>
-    <row r="529" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B529" s="3"/>
-      <c r="C529" s="3"/>
-    </row>
-    <row r="530" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B530" s="1"/>
-      <c r="C530" s="1"/>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B527" s="3"/>
+      <c r="C527" s="3"/>
+    </row>
+    <row r="528" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B528" s="3"/>
+      <c r="C528" s="3"/>
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B529" s="1"/>
+      <c r="C529" s="1"/>
+    </row>
+    <row r="530" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B530" s="3"/>
+      <c r="C530" s="3"/>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B531" s="1"/>
@@ -2723,13 +2820,13 @@
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
     </row>
-    <row r="535" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B535" s="1"/>
-      <c r="C535" s="1"/>
-    </row>
-    <row r="536" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B536" s="3"/>
-      <c r="C536" s="3"/>
+    <row r="535" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B535" s="3"/>
+      <c r="C535" s="3"/>
+    </row>
+    <row r="536" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B536" s="1"/>
+      <c r="C536" s="1"/>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B537" s="1"/>
@@ -2743,17 +2840,17 @@
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
     </row>
-    <row r="540" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B540" s="3"/>
-      <c r="C540" s="3"/>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B540" s="1"/>
+      <c r="C540" s="1"/>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
     </row>
-    <row r="542" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B542" s="1"/>
-      <c r="C542" s="1"/>
+    <row r="542" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B542" s="3"/>
+      <c r="C542" s="3"/>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B543" s="1"/>
@@ -2767,9 +2864,9 @@
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
     </row>
-    <row r="546" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B546" s="1"/>
-      <c r="C546" s="1"/>
+    <row r="546" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B546" s="3"/>
+      <c r="C546" s="3"/>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B547" s="1"/>
@@ -2863,17 +2960,17 @@
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
     </row>
-    <row r="570" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B570" s="3"/>
-      <c r="C570" s="3"/>
+    <row r="570" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B570" s="1"/>
+      <c r="C570" s="1"/>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
     </row>
-    <row r="572" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B572" s="3"/>
-      <c r="C572" s="3"/>
+    <row r="572" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B572" s="1"/>
+      <c r="C572" s="1"/>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B573" s="1"/>
@@ -2895,9 +2992,9 @@
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
     </row>
-    <row r="578" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B578" s="1"/>
-      <c r="C578" s="1"/>
+    <row r="578" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B578" s="3"/>
+      <c r="C578" s="3"/>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B579" s="1"/>
@@ -2919,25 +3016,25 @@
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
     </row>
-    <row r="584" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B584" s="3"/>
-      <c r="C584" s="3"/>
+    <row r="584" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B584" s="1"/>
+      <c r="C584" s="1"/>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
     </row>
-    <row r="586" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B586" s="3"/>
-      <c r="C586" s="3"/>
-    </row>
-    <row r="587" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B587" s="3"/>
-      <c r="C587" s="3"/>
-    </row>
-    <row r="588" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B588" s="1"/>
-      <c r="C588" s="1"/>
+    <row r="586" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B586" s="1"/>
+      <c r="C586" s="1"/>
+    </row>
+    <row r="587" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B587" s="1"/>
+      <c r="C587" s="1"/>
+    </row>
+    <row r="588" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B588" s="3"/>
+      <c r="C588" s="3"/>
     </row>
     <row r="589" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B589" s="1"/>
@@ -2967,25 +3064,25 @@
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
     </row>
-    <row r="596" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B596" s="1"/>
-      <c r="C596" s="1"/>
+    <row r="596" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B596" s="3"/>
+      <c r="C596" s="3"/>
     </row>
     <row r="597" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
     </row>
-    <row r="598" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B598" s="1"/>
-      <c r="C598" s="1"/>
-    </row>
-    <row r="599" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B599" s="1"/>
-      <c r="C599" s="1"/>
-    </row>
-    <row r="600" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B600" s="3"/>
-      <c r="C600" s="3"/>
+    <row r="598" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B598" s="3"/>
+      <c r="C598" s="3"/>
+    </row>
+    <row r="599" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B599" s="3"/>
+      <c r="C599" s="3"/>
+    </row>
+    <row r="600" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B600" s="1"/>
+      <c r="C600" s="1"/>
     </row>
     <row r="601" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B601" s="1"/>
@@ -2995,9 +3092,9 @@
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
     </row>
-    <row r="603" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B603" s="3"/>
-      <c r="C603" s="3"/>
+    <row r="603" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B603" s="1"/>
+      <c r="C603" s="1"/>
     </row>
     <row r="604" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B604" s="1"/>
@@ -3007,13 +3104,37 @@
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
     </row>
-    <row r="606" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B606" s="1"/>
-      <c r="C606" s="1"/>
+    <row r="606" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B606" s="3"/>
+      <c r="C606" s="3"/>
     </row>
     <row r="607" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B607" s="2"/>
+      <c r="B607" s="1"/>
       <c r="C607" s="1"/>
+    </row>
+    <row r="608" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B608" s="1"/>
+      <c r="C608" s="1"/>
+    </row>
+    <row r="609" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B609" s="3"/>
+      <c r="C609" s="3"/>
+    </row>
+    <row r="610" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B610" s="1"/>
+      <c r="C610" s="1"/>
+    </row>
+    <row r="611" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B611" s="1"/>
+      <c r="C611" s="1"/>
+    </row>
+    <row r="612" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B612" s="1"/>
+      <c r="C612" s="1"/>
+    </row>
+    <row r="613" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B613" s="2"/>
+      <c r="C613" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/gametabledata/localizationdata.xlsx
+++ b/gametabledata/localizationdata.xlsx
@@ -551,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C613"/>
+  <dimension ref="A1:C611"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -663,138 +663,132 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+        <v>1001</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:3" ht="31.2" x14ac:dyDescent="0.4">
+        <v>1002</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="4">
-        <v>1002</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>26</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>10001</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="4">
-        <v>1003</v>
+      <c r="A15" s="5">
+        <v>10002</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>10001</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="4">
+        <v>10003</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="5">
-        <v>10002</v>
+      <c r="A17" s="4">
+        <v>10004</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
-        <v>10004</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
-        <v>10005</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B29" s="1"/>
@@ -808,9 +802,9 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" s="1"/>
@@ -824,9 +818,9 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B37" s="1"/>
@@ -836,9 +830,9 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B40" s="1"/>
@@ -852,9 +846,9 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B44" s="1"/>
@@ -864,9 +858,9 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B47" s="1"/>
@@ -876,17 +870,17 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B52" s="1"/>
@@ -948,21 +942,21 @@
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B71" s="1"/>
@@ -972,29 +966,29 @@
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B79" s="1"/>
@@ -1016,9 +1010,9 @@
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B85" s="1"/>
@@ -1036,17 +1030,17 @@
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B92" s="1"/>
@@ -1076,25 +1070,25 @@
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B104" s="1"/>
@@ -1108,9 +1102,9 @@
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B108" s="1"/>
@@ -1120,21 +1114,21 @@
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="3"/>
@@ -1144,9 +1138,9 @@
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="3"/>
@@ -1156,9 +1150,9 @@
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B120" s="1"/>
@@ -1192,9 +1186,9 @@
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B129" s="1"/>
@@ -1216,9 +1210,9 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B135" s="1"/>
@@ -1232,25 +1226,25 @@
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B143" s="1"/>
@@ -1264,9 +1258,9 @@
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B147" s="1"/>
@@ -1312,57 +1306,57 @@
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B171" s="1"/>
@@ -1376,17 +1370,17 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B177" s="1"/>
@@ -1396,37 +1390,37 @@
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B187" s="1"/>
@@ -1460,21 +1454,21 @@
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B199" s="1"/>
@@ -1484,21 +1478,21 @@
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B205" s="1"/>
@@ -1520,9 +1514,9 @@
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B211" s="1"/>
@@ -1536,17 +1530,17 @@
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B217" s="1"/>
@@ -1580,17 +1574,17 @@
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B228" s="1"/>
@@ -1672,33 +1666,33 @@
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B255" s="1"/>
@@ -1716,17 +1710,17 @@
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" s="3"/>
@@ -1736,9 +1730,9 @@
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B265" s="1"/>
@@ -1808,17 +1802,17 @@
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B282" s="1"/>
-      <c r="C282" s="1"/>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B284" s="3"/>
-      <c r="C284" s="3"/>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B285" s="1"/>
@@ -1828,17 +1822,17 @@
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B287" s="1"/>
-      <c r="C287" s="1"/>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B289" s="3"/>
-      <c r="C289" s="3"/>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B290" s="1"/>
@@ -1888,17 +1882,17 @@
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B302" s="1"/>
-      <c r="C302" s="1"/>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B304" s="3"/>
-      <c r="C304" s="3"/>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B305" s="1"/>
@@ -1916,9 +1910,9 @@
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B309" s="1"/>
-      <c r="C309" s="1"/>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B310" s="1"/>
@@ -1932,9 +1926,9 @@
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B313" s="3"/>
-      <c r="C313" s="3"/>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B314" s="1"/>
@@ -1956,17 +1950,17 @@
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B319" s="1"/>
-      <c r="C319" s="1"/>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B321" s="3"/>
-      <c r="C321" s="3"/>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B322" s="1"/>
@@ -1980,9 +1974,9 @@
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B325" s="1"/>
-      <c r="C325" s="1"/>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B326" s="1"/>
@@ -1996,9 +1990,9 @@
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B329" s="3"/>
-      <c r="C329" s="3"/>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B330" s="1"/>
@@ -2020,17 +2014,17 @@
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B335" s="1"/>
-      <c r="C335" s="1"/>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B337" s="3"/>
-      <c r="C337" s="3"/>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B338" s="1"/>
@@ -2064,21 +2058,21 @@
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B346" s="1"/>
-      <c r="C346" s="1"/>
-    </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
-    </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B348" s="3"/>
-      <c r="C348" s="3"/>
-    </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B349" s="3"/>
-      <c r="C349" s="3"/>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B347" s="3"/>
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B350" s="1"/>
@@ -2112,33 +2106,33 @@
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B358" s="1"/>
-      <c r="C358" s="1"/>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B358" s="3"/>
+      <c r="C358" s="3"/>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B360" s="3"/>
-      <c r="C360" s="3"/>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B362" s="1"/>
-      <c r="C362" s="1"/>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B362" s="3"/>
+      <c r="C362" s="3"/>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B364" s="3"/>
-      <c r="C364" s="3"/>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B365" s="1"/>
@@ -2152,49 +2146,49 @@
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B368" s="1"/>
-      <c r="C368" s="1"/>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B368" s="3"/>
+      <c r="C368" s="3"/>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B370" s="3"/>
-      <c r="C370" s="3"/>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B372" s="1"/>
-      <c r="C372" s="1"/>
-    </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B373" s="1"/>
-      <c r="C373" s="1"/>
-    </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B374" s="3"/>
-      <c r="C374" s="3"/>
-    </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B375" s="3"/>
-      <c r="C375" s="3"/>
-    </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B376" s="1"/>
-      <c r="C376" s="1"/>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B372" s="3"/>
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B373" s="3"/>
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B376" s="3"/>
+      <c r="C376" s="3"/>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
     </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B378" s="3"/>
-      <c r="C378" s="3"/>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B379" s="1"/>
@@ -2208,17 +2202,17 @@
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
     </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B382" s="1"/>
-      <c r="C382" s="1"/>
-    </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B383" s="1"/>
-      <c r="C383" s="1"/>
-    </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B384" s="3"/>
-      <c r="C384" s="3"/>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B382" s="3"/>
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B383" s="3"/>
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B385" s="3"/>
@@ -2228,9 +2222,9 @@
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
     </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B387" s="3"/>
-      <c r="C387" s="3"/>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B388" s="1"/>
@@ -2240,17 +2234,17 @@
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
     </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B390" s="1"/>
-      <c r="C390" s="1"/>
-    </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B392" s="3"/>
-      <c r="C392" s="3"/>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
     </row>
     <row r="393" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B393" s="3"/>
@@ -2268,9 +2262,9 @@
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
     </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B397" s="3"/>
-      <c r="C397" s="3"/>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B398" s="1"/>
@@ -2304,17 +2298,17 @@
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
     </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B406" s="1"/>
-      <c r="C406" s="1"/>
-    </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B407" s="1"/>
-      <c r="C407" s="1"/>
-    </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B408" s="3"/>
-      <c r="C408" s="3"/>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B406" s="3"/>
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B407" s="3"/>
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
     </row>
     <row r="409" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B409" s="3"/>
@@ -2324,9 +2318,9 @@
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B411" s="3"/>
-      <c r="C411" s="3"/>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B412" s="1"/>
@@ -2336,17 +2330,17 @@
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B414" s="1"/>
-      <c r="C414" s="1"/>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B414" s="3"/>
+      <c r="C414" s="3"/>
     </row>
     <row r="415" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B416" s="3"/>
-      <c r="C416" s="3"/>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B417" s="1"/>
@@ -2356,17 +2350,17 @@
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
     </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B419" s="1"/>
-      <c r="C419" s="1"/>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B419" s="3"/>
+      <c r="C419" s="3"/>
     </row>
     <row r="420" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B421" s="3"/>
-      <c r="C421" s="3"/>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B422" s="1"/>
@@ -2380,21 +2374,21 @@
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
     </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B425" s="1"/>
-      <c r="C425" s="1"/>
-    </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B426" s="1"/>
-      <c r="C426" s="1"/>
-    </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B427" s="3"/>
-      <c r="C427" s="3"/>
-    </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B428" s="3"/>
-      <c r="C428" s="3"/>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B425" s="3"/>
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B426" s="3"/>
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B428" s="1"/>
+      <c r="C428" s="1"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B429" s="1"/>
@@ -2408,17 +2402,17 @@
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
     </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B432" s="1"/>
-      <c r="C432" s="1"/>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B432" s="3"/>
+      <c r="C432" s="3"/>
     </row>
     <row r="433" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
     </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B434" s="3"/>
-      <c r="C434" s="3"/>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B435" s="1"/>
@@ -2428,21 +2422,21 @@
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
     </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B437" s="1"/>
-      <c r="C437" s="1"/>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B437" s="3"/>
+      <c r="C437" s="3"/>
     </row>
     <row r="438" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
     </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B439" s="3"/>
-      <c r="C439" s="3"/>
-    </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B440" s="1"/>
-      <c r="C440" s="1"/>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B440" s="3"/>
+      <c r="C440" s="3"/>
     </row>
     <row r="441" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B441" s="1"/>
@@ -2456,33 +2450,33 @@
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
     </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B444" s="3"/>
-      <c r="C444" s="3"/>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
     </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B446" s="1"/>
-      <c r="C446" s="1"/>
-    </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B447" s="1"/>
-      <c r="C447" s="1"/>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B446" s="3"/>
+      <c r="C446" s="3"/>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B447" s="3"/>
+      <c r="C447" s="3"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
     </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B449" s="3"/>
-      <c r="C449" s="3"/>
-    </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B450" s="3"/>
-      <c r="C450" s="3"/>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B449" s="1"/>
+      <c r="C449" s="1"/>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B451" s="1"/>
@@ -2512,17 +2506,17 @@
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
     </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B458" s="1"/>
-      <c r="C458" s="1"/>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B458" s="3"/>
+      <c r="C458" s="3"/>
     </row>
     <row r="459" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
     </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B460" s="3"/>
-      <c r="C460" s="3"/>
+    <row r="460" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B460" s="1"/>
+      <c r="C460" s="1"/>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B461" s="1"/>
@@ -2532,17 +2526,17 @@
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
     </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B463" s="1"/>
-      <c r="C463" s="1"/>
-    </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B464" s="1"/>
-      <c r="C464" s="1"/>
-    </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B465" s="3"/>
-      <c r="C465" s="3"/>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B463" s="3"/>
+      <c r="C463" s="3"/>
+    </row>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B464" s="3"/>
+      <c r="C464" s="3"/>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B465" s="1"/>
+      <c r="C465" s="1"/>
     </row>
     <row r="466" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B466" s="3"/>
@@ -2552,25 +2546,25 @@
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B468" s="3"/>
-      <c r="C468" s="3"/>
-    </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B469" s="1"/>
-      <c r="C469" s="1"/>
+    <row r="468" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B468" s="1"/>
+      <c r="C468" s="1"/>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B469" s="3"/>
+      <c r="C469" s="3"/>
     </row>
     <row r="470" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B471" s="3"/>
-      <c r="C471" s="3"/>
-    </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B472" s="1"/>
-      <c r="C472" s="1"/>
+    <row r="471" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B471" s="1"/>
+      <c r="C471" s="1"/>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B472" s="3"/>
+      <c r="C472" s="3"/>
     </row>
     <row r="473" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B473" s="1"/>
@@ -2584,61 +2578,61 @@
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B476" s="3"/>
-      <c r="C476" s="3"/>
-    </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B477" s="1"/>
-      <c r="C477" s="1"/>
+    <row r="476" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B477" s="3"/>
+      <c r="C477" s="3"/>
     </row>
     <row r="478" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B479" s="3"/>
-      <c r="C479" s="3"/>
-    </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B480" s="1"/>
-      <c r="C480" s="1"/>
+    <row r="479" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B479" s="1"/>
+      <c r="C479" s="1"/>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B480" s="3"/>
+      <c r="C480" s="3"/>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
     </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B482" s="3"/>
-      <c r="C482" s="3"/>
+    <row r="482" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
     </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B484" s="1"/>
-      <c r="C484" s="1"/>
-    </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B485" s="1"/>
-      <c r="C485" s="1"/>
-    </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B486" s="3"/>
-      <c r="C486" s="3"/>
-    </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B487" s="3"/>
-      <c r="C487" s="3"/>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B484" s="3"/>
+      <c r="C484" s="3"/>
+    </row>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B485" s="3"/>
+      <c r="C485" s="3"/>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B487" s="1"/>
+      <c r="C487" s="1"/>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
     </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B489" s="1"/>
-      <c r="C489" s="1"/>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B489" s="3"/>
+      <c r="C489" s="3"/>
     </row>
     <row r="490" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B490" s="1"/>
@@ -2648,21 +2642,21 @@
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
     </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B492" s="1"/>
-      <c r="C492" s="1"/>
-    </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B493" s="3"/>
-      <c r="C493" s="3"/>
-    </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B494" s="3"/>
-      <c r="C494" s="3"/>
-    </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B495" s="1"/>
-      <c r="C495" s="1"/>
+    <row r="492" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B492" s="3"/>
+      <c r="C492" s="3"/>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B493" s="1"/>
+      <c r="C493" s="1"/>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B494" s="1"/>
+      <c r="C494" s="1"/>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B495" s="3"/>
+      <c r="C495" s="3"/>
     </row>
     <row r="496" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B496" s="1"/>
@@ -2676,9 +2670,9 @@
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
     </row>
-    <row r="499" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B499" s="3"/>
-      <c r="C499" s="3"/>
+    <row r="499" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B499" s="1"/>
+      <c r="C499" s="1"/>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B500" s="1"/>
@@ -2692,9 +2686,9 @@
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
     </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B503" s="1"/>
-      <c r="C503" s="1"/>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B503" s="3"/>
+      <c r="C503" s="3"/>
     </row>
     <row r="504" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B504" s="1"/>
@@ -2716,17 +2710,17 @@
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
     </row>
-    <row r="509" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B509" s="3"/>
-      <c r="C509" s="3"/>
+    <row r="509" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B509" s="1"/>
+      <c r="C509" s="1"/>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
     </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B511" s="1"/>
-      <c r="C511" s="1"/>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B511" s="3"/>
+      <c r="C511" s="3"/>
     </row>
     <row r="512" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B512" s="1"/>
@@ -2736,17 +2730,17 @@
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
     </row>
-    <row r="514" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B514" s="1"/>
-      <c r="C514" s="1"/>
+    <row r="514" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B514" s="3"/>
+      <c r="C514" s="3"/>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
     </row>
-    <row r="516" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B516" s="3"/>
-      <c r="C516" s="3"/>
+    <row r="516" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B516" s="1"/>
+      <c r="C516" s="1"/>
     </row>
     <row r="517" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B517" s="3"/>
@@ -2756,13 +2750,13 @@
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
     </row>
-    <row r="519" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B519" s="3"/>
-      <c r="C519" s="3"/>
-    </row>
-    <row r="520" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B520" s="1"/>
-      <c r="C520" s="1"/>
+    <row r="519" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B519" s="1"/>
+      <c r="C519" s="1"/>
+    </row>
+    <row r="520" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B520" s="3"/>
+      <c r="C520" s="3"/>
     </row>
     <row r="521" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B521" s="1"/>
@@ -2776,21 +2770,21 @@
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
     </row>
-    <row r="524" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B524" s="3"/>
-      <c r="C524" s="3"/>
-    </row>
-    <row r="525" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B525" s="1"/>
-      <c r="C525" s="1"/>
-    </row>
-    <row r="526" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B526" s="1"/>
-      <c r="C526" s="1"/>
-    </row>
-    <row r="527" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B527" s="3"/>
-      <c r="C527" s="3"/>
+    <row r="524" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B524" s="1"/>
+      <c r="C524" s="1"/>
+    </row>
+    <row r="525" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B525" s="3"/>
+      <c r="C525" s="3"/>
+    </row>
+    <row r="526" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B526" s="3"/>
+      <c r="C526" s="3"/>
+    </row>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B527" s="1"/>
+      <c r="C527" s="1"/>
     </row>
     <row r="528" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B528" s="3"/>
@@ -2800,9 +2794,9 @@
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
     </row>
-    <row r="530" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B530" s="3"/>
-      <c r="C530" s="3"/>
+    <row r="530" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B530" s="1"/>
+      <c r="C530" s="1"/>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B531" s="1"/>
@@ -2812,17 +2806,17 @@
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
     </row>
-    <row r="533" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B533" s="1"/>
-      <c r="C533" s="1"/>
+    <row r="533" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B533" s="3"/>
+      <c r="C533" s="3"/>
     </row>
     <row r="534" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
     </row>
-    <row r="535" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B535" s="3"/>
-      <c r="C535" s="3"/>
+    <row r="535" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B535" s="1"/>
+      <c r="C535" s="1"/>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B536" s="1"/>
@@ -2840,33 +2834,33 @@
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
     </row>
-    <row r="540" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B540" s="1"/>
-      <c r="C540" s="1"/>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B540" s="3"/>
+      <c r="C540" s="3"/>
     </row>
     <row r="541" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
     </row>
-    <row r="542" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B542" s="3"/>
-      <c r="C542" s="3"/>
+    <row r="542" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B542" s="1"/>
+      <c r="C542" s="1"/>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
     </row>
-    <row r="544" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B544" s="1"/>
-      <c r="C544" s="1"/>
+    <row r="544" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B544" s="3"/>
+      <c r="C544" s="3"/>
     </row>
     <row r="545" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
     </row>
-    <row r="546" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B546" s="3"/>
-      <c r="C546" s="3"/>
+    <row r="546" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B546" s="1"/>
+      <c r="C546" s="1"/>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B547" s="1"/>
@@ -2976,9 +2970,9 @@
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
     </row>
-    <row r="574" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B574" s="1"/>
-      <c r="C574" s="1"/>
+    <row r="574" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B574" s="3"/>
+      <c r="C574" s="3"/>
     </row>
     <row r="575" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B575" s="1"/>
@@ -2992,25 +2986,25 @@
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
     </row>
-    <row r="578" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B578" s="3"/>
-      <c r="C578" s="3"/>
+    <row r="578" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B578" s="1"/>
+      <c r="C578" s="1"/>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
     </row>
-    <row r="580" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B580" s="1"/>
-      <c r="C580" s="1"/>
+    <row r="580" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B580" s="3"/>
+      <c r="C580" s="3"/>
     </row>
     <row r="581" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
     </row>
-    <row r="582" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B582" s="3"/>
-      <c r="C582" s="3"/>
+    <row r="582" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B582" s="1"/>
+      <c r="C582" s="1"/>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B583" s="1"/>
@@ -3024,9 +3018,9 @@
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
     </row>
-    <row r="586" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B586" s="1"/>
-      <c r="C586" s="1"/>
+    <row r="586" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B586" s="3"/>
+      <c r="C586" s="3"/>
     </row>
     <row r="587" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B587" s="1"/>
@@ -3044,21 +3038,21 @@
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
     </row>
-    <row r="591" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B591" s="1"/>
-      <c r="C591" s="1"/>
-    </row>
-    <row r="592" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B592" s="3"/>
-      <c r="C592" s="3"/>
-    </row>
-    <row r="593" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B593" s="3"/>
-      <c r="C593" s="3"/>
-    </row>
-    <row r="594" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B594" s="1"/>
-      <c r="C594" s="1"/>
+    <row r="591" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B591" s="3"/>
+      <c r="C591" s="3"/>
+    </row>
+    <row r="592" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B592" s="1"/>
+      <c r="C592" s="1"/>
+    </row>
+    <row r="593" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B593" s="1"/>
+      <c r="C593" s="1"/>
+    </row>
+    <row r="594" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B594" s="3"/>
+      <c r="C594" s="3"/>
     </row>
     <row r="595" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B595" s="1"/>
@@ -3068,17 +3062,17 @@
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
     </row>
-    <row r="597" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B597" s="1"/>
-      <c r="C597" s="1"/>
-    </row>
-    <row r="598" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B598" s="3"/>
-      <c r="C598" s="3"/>
-    </row>
-    <row r="599" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B599" s="3"/>
-      <c r="C599" s="3"/>
+    <row r="597" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B597" s="3"/>
+      <c r="C597" s="3"/>
+    </row>
+    <row r="598" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B598" s="1"/>
+      <c r="C598" s="1"/>
+    </row>
+    <row r="599" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B599" s="1"/>
+      <c r="C599" s="1"/>
     </row>
     <row r="600" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B600" s="1"/>
@@ -3096,45 +3090,37 @@
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
     </row>
-    <row r="604" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B604" s="1"/>
-      <c r="C604" s="1"/>
+    <row r="604" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B604" s="3"/>
+      <c r="C604" s="3"/>
     </row>
     <row r="605" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
     </row>
-    <row r="606" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B606" s="3"/>
-      <c r="C606" s="3"/>
-    </row>
-    <row r="607" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B607" s="1"/>
-      <c r="C607" s="1"/>
+    <row r="606" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B606" s="1"/>
+      <c r="C606" s="1"/>
+    </row>
+    <row r="607" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B607" s="3"/>
+      <c r="C607" s="3"/>
     </row>
     <row r="608" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
     </row>
-    <row r="609" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B609" s="3"/>
-      <c r="C609" s="3"/>
+    <row r="609" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B609" s="1"/>
+      <c r="C609" s="1"/>
     </row>
     <row r="610" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
     </row>
     <row r="611" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B611" s="1"/>
+      <c r="B611" s="2"/>
       <c r="C611" s="1"/>
-    </row>
-    <row r="612" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B612" s="1"/>
-      <c r="C612" s="1"/>
-    </row>
-    <row r="613" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B613" s="2"/>
-      <c r="C613" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/gametabledata/localizationdata.xlsx
+++ b/gametabledata/localizationdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,18 @@
   <si>
     <t>게임 시작</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임을 종료 하시겠습니까?</t>
+  </si>
+  <si>
+    <t>Are you sure you want to quit the game?</t>
+  </si>
+  <si>
+    <t>Http communicating</t>
+  </si>
+  <si>
+    <t>Nicknames can range from 2 to 10 characters</t>
   </si>
 </sst>
 </file>
@@ -244,32 +256,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,43 +566,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C611"/>
+  <dimension ref="A1:C612"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="20.69921875" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -598,18 +616,18 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -620,7 +638,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -631,7 +649,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -642,7 +660,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -653,27 +671,29 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="A11" s="4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
         <v>1001</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>1002</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -684,2443 +704,2456 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>1003</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
+      <c r="C13" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="3">
+        <v>1004</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
         <v>10001</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="5">
-        <v>10002</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
+        <v>10002</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
         <v>10003</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
         <v>10004</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3">
         <v>10005</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="9"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="9"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="9"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="9"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="9"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="9"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
+      <c r="B192" s="9"/>
+      <c r="C192" s="9"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="9"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B195" s="9"/>
+      <c r="C195" s="9"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="9"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="9"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B200" s="9"/>
+      <c r="C200" s="9"/>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B201" s="9"/>
+      <c r="C201" s="9"/>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B203" s="9"/>
+      <c r="C203" s="9"/>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B204" s="9"/>
+      <c r="C204" s="9"/>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B206" s="9"/>
+      <c r="C206" s="9"/>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B208" s="9"/>
+      <c r="C208" s="9"/>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="9"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="9"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="9"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B213" s="9"/>
+      <c r="C213" s="9"/>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B214" s="9"/>
+      <c r="C214" s="9"/>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="9"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="9"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="9"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
+      <c r="B219" s="9"/>
+      <c r="C219" s="9"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="9"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="9"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="9"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="9"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B224" s="9"/>
+      <c r="C224" s="9"/>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B225" s="9"/>
+      <c r="C225" s="9"/>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
+      <c r="B227" s="9"/>
+      <c r="C227" s="9"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="9"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="9"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="9"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="9"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
+      <c r="B232" s="9"/>
+      <c r="C232" s="9"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
+      <c r="B233" s="9"/>
+      <c r="C233" s="9"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
+      <c r="B234" s="9"/>
+      <c r="C234" s="9"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
+      <c r="B235" s="9"/>
+      <c r="C235" s="9"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
+      <c r="B236" s="9"/>
+      <c r="C236" s="9"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
+      <c r="B237" s="9"/>
+      <c r="C237" s="9"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="9"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
+      <c r="B239" s="9"/>
+      <c r="C239" s="9"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
+      <c r="B240" s="9"/>
+      <c r="C240" s="9"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
+      <c r="B241" s="9"/>
+      <c r="C241" s="9"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
+      <c r="B242" s="9"/>
+      <c r="C242" s="9"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
+      <c r="B243" s="9"/>
+      <c r="C243" s="9"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="9"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
+      <c r="B245" s="9"/>
+      <c r="C245" s="9"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
+      <c r="B246" s="9"/>
+      <c r="C246" s="9"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B247" s="9"/>
+      <c r="C247" s="9"/>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B248" s="9"/>
+      <c r="C248" s="9"/>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
+      <c r="B250" s="9"/>
+      <c r="C250" s="9"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B252" s="3"/>
-      <c r="C252" s="3"/>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B251" s="9"/>
+      <c r="C251" s="9"/>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B252" s="9"/>
+      <c r="C252" s="9"/>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
+      <c r="B254" s="9"/>
+      <c r="C254" s="9"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
+      <c r="B255" s="9"/>
+      <c r="C255" s="9"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
+      <c r="B256" s="9"/>
+      <c r="C256" s="9"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
+      <c r="B257" s="9"/>
+      <c r="C257" s="9"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B259" s="3"/>
-      <c r="C259" s="3"/>
+      <c r="B258" s="9"/>
+      <c r="C258" s="9"/>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B259" s="9"/>
+      <c r="C259" s="9"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B260" s="3"/>
-      <c r="C260" s="3"/>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B262" s="9"/>
+      <c r="C262" s="9"/>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
+      <c r="B264" s="9"/>
+      <c r="C264" s="9"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B265" s="1"/>
-      <c r="C265" s="1"/>
+      <c r="B265" s="9"/>
+      <c r="C265" s="9"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
+      <c r="B266" s="9"/>
+      <c r="C266" s="9"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B267" s="1"/>
-      <c r="C267" s="1"/>
+      <c r="B267" s="9"/>
+      <c r="C267" s="9"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B268" s="1"/>
-      <c r="C268" s="1"/>
+      <c r="B268" s="9"/>
+      <c r="C268" s="9"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B269" s="1"/>
-      <c r="C269" s="1"/>
+      <c r="B269" s="9"/>
+      <c r="C269" s="9"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B270" s="1"/>
-      <c r="C270" s="1"/>
+      <c r="B270" s="9"/>
+      <c r="C270" s="9"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B271" s="1"/>
-      <c r="C271" s="1"/>
+      <c r="B271" s="9"/>
+      <c r="C271" s="9"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B272" s="1"/>
-      <c r="C272" s="1"/>
+      <c r="B272" s="9"/>
+      <c r="C272" s="9"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B273" s="1"/>
-      <c r="C273" s="1"/>
+      <c r="B273" s="9"/>
+      <c r="C273" s="9"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
+      <c r="B274" s="9"/>
+      <c r="C274" s="9"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
+      <c r="B275" s="9"/>
+      <c r="C275" s="9"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B276" s="1"/>
-      <c r="C276" s="1"/>
+      <c r="B276" s="9"/>
+      <c r="C276" s="9"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B277" s="1"/>
-      <c r="C277" s="1"/>
+      <c r="B277" s="9"/>
+      <c r="C277" s="9"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B278" s="1"/>
-      <c r="C278" s="1"/>
+      <c r="B278" s="9"/>
+      <c r="C278" s="9"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B279" s="1"/>
-      <c r="C279" s="1"/>
+      <c r="B279" s="9"/>
+      <c r="C279" s="9"/>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B280" s="1"/>
-      <c r="C280" s="1"/>
+      <c r="B280" s="9"/>
+      <c r="C280" s="9"/>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B281" s="1"/>
-      <c r="C281" s="1"/>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B282" s="3"/>
-      <c r="C282" s="3"/>
-    </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B281" s="9"/>
+      <c r="C281" s="9"/>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B282" s="9"/>
+      <c r="C282" s="9"/>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B284" s="1"/>
-      <c r="C284" s="1"/>
+      <c r="B284" s="9"/>
+      <c r="C284" s="9"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
+      <c r="B285" s="9"/>
+      <c r="C285" s="9"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B286" s="1"/>
-      <c r="C286" s="1"/>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B287" s="3"/>
-      <c r="C287" s="3"/>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B286" s="9"/>
+      <c r="C286" s="9"/>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B287" s="9"/>
+      <c r="C287" s="9"/>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B289" s="1"/>
-      <c r="C289" s="1"/>
+      <c r="B289" s="9"/>
+      <c r="C289" s="9"/>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
+      <c r="B290" s="9"/>
+      <c r="C290" s="9"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B291" s="1"/>
-      <c r="C291" s="1"/>
+      <c r="B291" s="9"/>
+      <c r="C291" s="9"/>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B292" s="1"/>
-      <c r="C292" s="1"/>
+      <c r="B292" s="9"/>
+      <c r="C292" s="9"/>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B293" s="1"/>
-      <c r="C293" s="1"/>
+      <c r="B293" s="9"/>
+      <c r="C293" s="9"/>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B294" s="1"/>
-      <c r="C294" s="1"/>
+      <c r="B294" s="9"/>
+      <c r="C294" s="9"/>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B295" s="1"/>
-      <c r="C295" s="1"/>
+      <c r="B295" s="9"/>
+      <c r="C295" s="9"/>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B296" s="1"/>
-      <c r="C296" s="1"/>
+      <c r="B296" s="9"/>
+      <c r="C296" s="9"/>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B297" s="1"/>
-      <c r="C297" s="1"/>
+      <c r="B297" s="9"/>
+      <c r="C297" s="9"/>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B298" s="1"/>
-      <c r="C298" s="1"/>
+      <c r="B298" s="9"/>
+      <c r="C298" s="9"/>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B299" s="1"/>
-      <c r="C299" s="1"/>
+      <c r="B299" s="9"/>
+      <c r="C299" s="9"/>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B300" s="1"/>
-      <c r="C300" s="1"/>
+      <c r="B300" s="9"/>
+      <c r="C300" s="9"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B301" s="1"/>
-      <c r="C301" s="1"/>
-    </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B302" s="3"/>
-      <c r="C302" s="3"/>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B301" s="9"/>
+      <c r="C301" s="9"/>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B302" s="9"/>
+      <c r="C302" s="9"/>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B304" s="1"/>
-      <c r="C304" s="1"/>
+      <c r="B304" s="9"/>
+      <c r="C304" s="9"/>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B305" s="1"/>
-      <c r="C305" s="1"/>
+      <c r="B305" s="9"/>
+      <c r="C305" s="9"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B306" s="1"/>
-      <c r="C306" s="1"/>
+      <c r="B306" s="9"/>
+      <c r="C306" s="9"/>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B307" s="1"/>
-      <c r="C307" s="1"/>
+      <c r="B307" s="9"/>
+      <c r="C307" s="9"/>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B308" s="1"/>
-      <c r="C308" s="1"/>
-    </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B309" s="3"/>
-      <c r="C309" s="3"/>
-    </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B308" s="9"/>
+      <c r="C308" s="9"/>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B309" s="9"/>
+      <c r="C309" s="9"/>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B311" s="3"/>
-      <c r="C311" s="3"/>
-    </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B311" s="9"/>
+      <c r="C311" s="9"/>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B313" s="1"/>
-      <c r="C313" s="1"/>
+      <c r="B313" s="9"/>
+      <c r="C313" s="9"/>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B314" s="1"/>
-      <c r="C314" s="1"/>
+      <c r="B314" s="9"/>
+      <c r="C314" s="9"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B315" s="1"/>
-      <c r="C315" s="1"/>
+      <c r="B315" s="9"/>
+      <c r="C315" s="9"/>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B316" s="1"/>
-      <c r="C316" s="1"/>
+      <c r="B316" s="9"/>
+      <c r="C316" s="9"/>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B317" s="1"/>
-      <c r="C317" s="1"/>
+      <c r="B317" s="9"/>
+      <c r="C317" s="9"/>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B318" s="1"/>
-      <c r="C318" s="1"/>
-    </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B319" s="3"/>
-      <c r="C319" s="3"/>
-    </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B318" s="9"/>
+      <c r="C318" s="9"/>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B319" s="9"/>
+      <c r="C319" s="9"/>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B321" s="1"/>
-      <c r="C321" s="1"/>
+      <c r="B321" s="9"/>
+      <c r="C321" s="9"/>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B322" s="1"/>
-      <c r="C322" s="1"/>
+      <c r="B322" s="9"/>
+      <c r="C322" s="9"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B323" s="1"/>
-      <c r="C323" s="1"/>
+      <c r="B323" s="9"/>
+      <c r="C323" s="9"/>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B324" s="1"/>
-      <c r="C324" s="1"/>
-    </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B325" s="3"/>
-      <c r="C325" s="3"/>
-    </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B324" s="9"/>
+      <c r="C324" s="9"/>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B325" s="9"/>
+      <c r="C325" s="9"/>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B327" s="3"/>
-      <c r="C327" s="3"/>
-    </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B327" s="9"/>
+      <c r="C327" s="9"/>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
+      <c r="B329" s="9"/>
+      <c r="C329" s="9"/>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B330" s="1"/>
-      <c r="C330" s="1"/>
+      <c r="B330" s="9"/>
+      <c r="C330" s="9"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B331" s="1"/>
-      <c r="C331" s="1"/>
+      <c r="B331" s="9"/>
+      <c r="C331" s="9"/>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B332" s="1"/>
-      <c r="C332" s="1"/>
+      <c r="B332" s="9"/>
+      <c r="C332" s="9"/>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B333" s="1"/>
-      <c r="C333" s="1"/>
+      <c r="B333" s="9"/>
+      <c r="C333" s="9"/>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B334" s="1"/>
-      <c r="C334" s="1"/>
-    </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B335" s="3"/>
-      <c r="C335" s="3"/>
-    </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B334" s="9"/>
+      <c r="C334" s="9"/>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B335" s="9"/>
+      <c r="C335" s="9"/>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B337" s="1"/>
-      <c r="C337" s="1"/>
+      <c r="B337" s="9"/>
+      <c r="C337" s="9"/>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B338" s="1"/>
-      <c r="C338" s="1"/>
+      <c r="B338" s="9"/>
+      <c r="C338" s="9"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B339" s="1"/>
-      <c r="C339" s="1"/>
+      <c r="B339" s="9"/>
+      <c r="C339" s="9"/>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B340" s="1"/>
-      <c r="C340" s="1"/>
+      <c r="B340" s="9"/>
+      <c r="C340" s="9"/>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B341" s="1"/>
-      <c r="C341" s="1"/>
+      <c r="B341" s="9"/>
+      <c r="C341" s="9"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B342" s="1"/>
-      <c r="C342" s="1"/>
+      <c r="B342" s="9"/>
+      <c r="C342" s="9"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B343" s="1"/>
-      <c r="C343" s="1"/>
+      <c r="B343" s="9"/>
+      <c r="C343" s="9"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B344" s="1"/>
-      <c r="C344" s="1"/>
+      <c r="B344" s="9"/>
+      <c r="C344" s="9"/>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B345" s="1"/>
-      <c r="C345" s="1"/>
-    </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B346" s="3"/>
-      <c r="C346" s="3"/>
+      <c r="B345" s="9"/>
+      <c r="C345" s="9"/>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B346" s="9"/>
+      <c r="C346" s="9"/>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B347" s="3"/>
-      <c r="C347" s="3"/>
-    </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B349" s="1"/>
-      <c r="C349" s="1"/>
+      <c r="B349" s="9"/>
+      <c r="C349" s="9"/>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B350" s="1"/>
-      <c r="C350" s="1"/>
+      <c r="B350" s="9"/>
+      <c r="C350" s="9"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B351" s="1"/>
-      <c r="C351" s="1"/>
+      <c r="B351" s="9"/>
+      <c r="C351" s="9"/>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B352" s="1"/>
-      <c r="C352" s="1"/>
+      <c r="B352" s="9"/>
+      <c r="C352" s="9"/>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B353" s="1"/>
-      <c r="C353" s="1"/>
+      <c r="B353" s="9"/>
+      <c r="C353" s="9"/>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B354" s="1"/>
-      <c r="C354" s="1"/>
+      <c r="B354" s="9"/>
+      <c r="C354" s="9"/>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B355" s="1"/>
-      <c r="C355" s="1"/>
+      <c r="B355" s="9"/>
+      <c r="C355" s="9"/>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B356" s="1"/>
-      <c r="C356" s="1"/>
+      <c r="B356" s="9"/>
+      <c r="C356" s="9"/>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B357" s="1"/>
-      <c r="C357" s="1"/>
-    </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B358" s="3"/>
-      <c r="C358" s="3"/>
-    </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B357" s="9"/>
+      <c r="C357" s="9"/>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B358" s="9"/>
+      <c r="C358" s="9"/>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B360" s="1"/>
-      <c r="C360" s="1"/>
+      <c r="B360" s="9"/>
+      <c r="C360" s="9"/>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B361" s="1"/>
-      <c r="C361" s="1"/>
-    </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B362" s="3"/>
-      <c r="C362" s="3"/>
-    </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B361" s="9"/>
+      <c r="C361" s="9"/>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B362" s="9"/>
+      <c r="C362" s="9"/>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B364" s="1"/>
-      <c r="C364" s="1"/>
+      <c r="B364" s="9"/>
+      <c r="C364" s="9"/>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B365" s="1"/>
-      <c r="C365" s="1"/>
+      <c r="B365" s="9"/>
+      <c r="C365" s="9"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B366" s="1"/>
-      <c r="C366" s="1"/>
+      <c r="B366" s="9"/>
+      <c r="C366" s="9"/>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B367" s="1"/>
-      <c r="C367" s="1"/>
-    </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B368" s="3"/>
-      <c r="C368" s="3"/>
-    </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B367" s="9"/>
+      <c r="C367" s="9"/>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B368" s="9"/>
+      <c r="C368" s="9"/>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B370" s="1"/>
-      <c r="C370" s="1"/>
+      <c r="B370" s="9"/>
+      <c r="C370" s="9"/>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B371" s="1"/>
-      <c r="C371" s="1"/>
-    </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B372" s="3"/>
-      <c r="C372" s="3"/>
+      <c r="B371" s="9"/>
+      <c r="C371" s="9"/>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B372" s="9"/>
+      <c r="C372" s="9"/>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B373" s="3"/>
-      <c r="C373" s="3"/>
-    </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B375" s="1"/>
-      <c r="C375" s="1"/>
-    </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B376" s="3"/>
-      <c r="C376" s="3"/>
-    </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B375" s="9"/>
+      <c r="C375" s="9"/>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B376" s="9"/>
+      <c r="C376" s="9"/>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B378" s="1"/>
-      <c r="C378" s="1"/>
+      <c r="B378" s="9"/>
+      <c r="C378" s="9"/>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B379" s="1"/>
-      <c r="C379" s="1"/>
+      <c r="B379" s="9"/>
+      <c r="C379" s="9"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B380" s="1"/>
-      <c r="C380" s="1"/>
+      <c r="B380" s="9"/>
+      <c r="C380" s="9"/>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B381" s="1"/>
-      <c r="C381" s="1"/>
-    </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B382" s="3"/>
-      <c r="C382" s="3"/>
+      <c r="B381" s="9"/>
+      <c r="C381" s="9"/>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B382" s="9"/>
+      <c r="C382" s="9"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B383" s="3"/>
-      <c r="C383" s="3"/>
-    </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B385" s="3"/>
-      <c r="C385" s="3"/>
-    </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="385" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B385" s="9"/>
+      <c r="C385" s="9"/>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B387" s="1"/>
-      <c r="C387" s="1"/>
+      <c r="B387" s="9"/>
+      <c r="C387" s="9"/>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B388" s="1"/>
-      <c r="C388" s="1"/>
+      <c r="B388" s="9"/>
+      <c r="C388" s="9"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B389" s="1"/>
-      <c r="C389" s="1"/>
-    </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B390" s="3"/>
-      <c r="C390" s="3"/>
+      <c r="B389" s="9"/>
+      <c r="C389" s="9"/>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B390" s="9"/>
+      <c r="C390" s="9"/>
     </row>
     <row r="391" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B391" s="3"/>
-      <c r="C391" s="3"/>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B393" s="3"/>
-      <c r="C393" s="3"/>
-    </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="393" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B393" s="9"/>
+      <c r="C393" s="9"/>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B395" s="3"/>
-      <c r="C395" s="3"/>
-    </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="395" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B395" s="9"/>
+      <c r="C395" s="9"/>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
     </row>
     <row r="397" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B397" s="1"/>
-      <c r="C397" s="1"/>
+      <c r="B397" s="9"/>
+      <c r="C397" s="9"/>
     </row>
     <row r="398" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B398" s="1"/>
-      <c r="C398" s="1"/>
+      <c r="B398" s="9"/>
+      <c r="C398" s="9"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B399" s="1"/>
-      <c r="C399" s="1"/>
+      <c r="B399" s="9"/>
+      <c r="C399" s="9"/>
     </row>
     <row r="400" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B400" s="1"/>
-      <c r="C400" s="1"/>
+      <c r="B400" s="9"/>
+      <c r="C400" s="9"/>
     </row>
     <row r="401" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B401" s="1"/>
-      <c r="C401" s="1"/>
+      <c r="B401" s="9"/>
+      <c r="C401" s="9"/>
     </row>
     <row r="402" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B402" s="1"/>
-      <c r="C402" s="1"/>
+      <c r="B402" s="9"/>
+      <c r="C402" s="9"/>
     </row>
     <row r="403" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B403" s="1"/>
-      <c r="C403" s="1"/>
+      <c r="B403" s="9"/>
+      <c r="C403" s="9"/>
     </row>
     <row r="404" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B404" s="1"/>
-      <c r="C404" s="1"/>
+      <c r="B404" s="9"/>
+      <c r="C404" s="9"/>
     </row>
     <row r="405" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B405" s="1"/>
-      <c r="C405" s="1"/>
-    </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B406" s="3"/>
-      <c r="C406" s="3"/>
+      <c r="B405" s="9"/>
+      <c r="C405" s="9"/>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B406" s="9"/>
+      <c r="C406" s="9"/>
     </row>
     <row r="407" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B407" s="3"/>
-      <c r="C407" s="3"/>
-    </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B409" s="3"/>
-      <c r="C409" s="3"/>
-    </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="409" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B409" s="9"/>
+      <c r="C409" s="9"/>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
     </row>
     <row r="411" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B411" s="1"/>
-      <c r="C411" s="1"/>
+      <c r="B411" s="9"/>
+      <c r="C411" s="9"/>
     </row>
     <row r="412" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B412" s="1"/>
-      <c r="C412" s="1"/>
+      <c r="B412" s="9"/>
+      <c r="C412" s="9"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B413" s="1"/>
-      <c r="C413" s="1"/>
-    </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B414" s="3"/>
-      <c r="C414" s="3"/>
-    </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B413" s="9"/>
+      <c r="C413" s="9"/>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B414" s="9"/>
+      <c r="C414" s="9"/>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B416" s="1"/>
-      <c r="C416" s="1"/>
+      <c r="B416" s="9"/>
+      <c r="C416" s="9"/>
     </row>
     <row r="417" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B417" s="1"/>
-      <c r="C417" s="1"/>
+      <c r="B417" s="9"/>
+      <c r="C417" s="9"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B418" s="1"/>
-      <c r="C418" s="1"/>
-    </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B419" s="3"/>
-      <c r="C419" s="3"/>
-    </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B418" s="9"/>
+      <c r="C418" s="9"/>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B419" s="9"/>
+      <c r="C419" s="9"/>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B421" s="1"/>
-      <c r="C421" s="1"/>
+      <c r="B421" s="9"/>
+      <c r="C421" s="9"/>
     </row>
     <row r="422" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B422" s="1"/>
-      <c r="C422" s="1"/>
+      <c r="B422" s="9"/>
+      <c r="C422" s="9"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B423" s="1"/>
-      <c r="C423" s="1"/>
+      <c r="B423" s="9"/>
+      <c r="C423" s="9"/>
     </row>
     <row r="424" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B424" s="1"/>
-      <c r="C424" s="1"/>
-    </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B425" s="3"/>
-      <c r="C425" s="3"/>
+      <c r="B424" s="9"/>
+      <c r="C424" s="9"/>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B425" s="9"/>
+      <c r="C425" s="9"/>
     </row>
     <row r="426" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B426" s="3"/>
-      <c r="C426" s="3"/>
-    </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
     </row>
     <row r="428" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B428" s="1"/>
-      <c r="C428" s="1"/>
+      <c r="B428" s="9"/>
+      <c r="C428" s="9"/>
     </row>
     <row r="429" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B429" s="1"/>
-      <c r="C429" s="1"/>
+      <c r="B429" s="9"/>
+      <c r="C429" s="9"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B430" s="1"/>
-      <c r="C430" s="1"/>
+      <c r="B430" s="9"/>
+      <c r="C430" s="9"/>
     </row>
     <row r="431" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B431" s="1"/>
-      <c r="C431" s="1"/>
-    </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B432" s="3"/>
-      <c r="C432" s="3"/>
-    </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B431" s="9"/>
+      <c r="C431" s="9"/>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B432" s="9"/>
+      <c r="C432" s="9"/>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B434" s="1"/>
-      <c r="C434" s="1"/>
+      <c r="B434" s="9"/>
+      <c r="C434" s="9"/>
     </row>
     <row r="435" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B435" s="1"/>
-      <c r="C435" s="1"/>
+      <c r="B435" s="9"/>
+      <c r="C435" s="9"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B436" s="1"/>
-      <c r="C436" s="1"/>
-    </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B437" s="3"/>
-      <c r="C437" s="3"/>
-    </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B436" s="9"/>
+      <c r="C436" s="9"/>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B437" s="9"/>
+      <c r="C437" s="9"/>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B439" s="1"/>
-      <c r="C439" s="1"/>
-    </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B440" s="3"/>
-      <c r="C440" s="3"/>
-    </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B439" s="9"/>
+      <c r="C439" s="9"/>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B440" s="9"/>
+      <c r="C440" s="9"/>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
     </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B442" s="3"/>
-      <c r="C442" s="3"/>
-    </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="442" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B442" s="9"/>
+      <c r="C442" s="9"/>
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
     </row>
     <row r="444" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B444" s="1"/>
-      <c r="C444" s="1"/>
+      <c r="B444" s="9"/>
+      <c r="C444" s="9"/>
     </row>
     <row r="445" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B445" s="1"/>
-      <c r="C445" s="1"/>
-    </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B446" s="3"/>
-      <c r="C446" s="3"/>
+      <c r="B445" s="9"/>
+      <c r="C445" s="9"/>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B446" s="9"/>
+      <c r="C446" s="9"/>
     </row>
     <row r="447" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B447" s="3"/>
-      <c r="C447" s="3"/>
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
     </row>
     <row r="448" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B448" s="3"/>
-      <c r="C448" s="3"/>
-    </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B448" s="1"/>
+      <c r="C448" s="1"/>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
     </row>
     <row r="450" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B450" s="1"/>
-      <c r="C450" s="1"/>
+      <c r="B450" s="9"/>
+      <c r="C450" s="9"/>
     </row>
     <row r="451" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B451" s="1"/>
-      <c r="C451" s="1"/>
+      <c r="B451" s="9"/>
+      <c r="C451" s="9"/>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B452" s="1"/>
-      <c r="C452" s="1"/>
+      <c r="B452" s="9"/>
+      <c r="C452" s="9"/>
     </row>
     <row r="453" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B453" s="1"/>
-      <c r="C453" s="1"/>
+      <c r="B453" s="9"/>
+      <c r="C453" s="9"/>
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B454" s="1"/>
-      <c r="C454" s="1"/>
+      <c r="B454" s="9"/>
+      <c r="C454" s="9"/>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B455" s="1"/>
-      <c r="C455" s="1"/>
+      <c r="B455" s="9"/>
+      <c r="C455" s="9"/>
     </row>
     <row r="456" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B456" s="1"/>
-      <c r="C456" s="1"/>
+      <c r="B456" s="9"/>
+      <c r="C456" s="9"/>
     </row>
     <row r="457" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B457" s="1"/>
-      <c r="C457" s="1"/>
-    </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B458" s="3"/>
-      <c r="C458" s="3"/>
-    </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B457" s="9"/>
+      <c r="C457" s="9"/>
+    </row>
+    <row r="458" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B458" s="9"/>
+      <c r="C458" s="9"/>
+    </row>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B460" s="1"/>
-      <c r="C460" s="1"/>
+      <c r="B460" s="9"/>
+      <c r="C460" s="9"/>
     </row>
     <row r="461" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B461" s="1"/>
-      <c r="C461" s="1"/>
+      <c r="B461" s="9"/>
+      <c r="C461" s="9"/>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B462" s="1"/>
-      <c r="C462" s="1"/>
-    </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B463" s="3"/>
-      <c r="C463" s="3"/>
+      <c r="B462" s="9"/>
+      <c r="C462" s="9"/>
+    </row>
+    <row r="463" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B463" s="9"/>
+      <c r="C463" s="9"/>
     </row>
     <row r="464" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B464" s="3"/>
-      <c r="C464" s="3"/>
-    </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B464" s="1"/>
+      <c r="C464" s="1"/>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B466" s="3"/>
-      <c r="C466" s="3"/>
-    </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="466" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B466" s="9"/>
+      <c r="C466" s="9"/>
+    </row>
+    <row r="467" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
     </row>
     <row r="468" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B468" s="1"/>
-      <c r="C468" s="1"/>
-    </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B469" s="3"/>
-      <c r="C469" s="3"/>
-    </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B468" s="9"/>
+      <c r="C468" s="9"/>
+    </row>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B469" s="9"/>
+      <c r="C469" s="9"/>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B471" s="1"/>
-      <c r="C471" s="1"/>
-    </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B472" s="3"/>
-      <c r="C472" s="3"/>
-    </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B471" s="9"/>
+      <c r="C471" s="9"/>
+    </row>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B472" s="9"/>
+      <c r="C472" s="9"/>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B474" s="3"/>
-      <c r="C474" s="3"/>
-    </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="474" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B474" s="9"/>
+      <c r="C474" s="9"/>
+    </row>
+    <row r="475" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
     </row>
     <row r="476" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B476" s="1"/>
-      <c r="C476" s="1"/>
-    </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B477" s="3"/>
-      <c r="C477" s="3"/>
-    </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B476" s="9"/>
+      <c r="C476" s="9"/>
+    </row>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B477" s="9"/>
+      <c r="C477" s="9"/>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B479" s="1"/>
-      <c r="C479" s="1"/>
-    </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B480" s="3"/>
-      <c r="C480" s="3"/>
-    </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B479" s="9"/>
+      <c r="C479" s="9"/>
+    </row>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B480" s="9"/>
+      <c r="C480" s="9"/>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B482" s="1"/>
-      <c r="C482" s="1"/>
+      <c r="B482" s="9"/>
+      <c r="C482" s="9"/>
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B483" s="1"/>
-      <c r="C483" s="1"/>
-    </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B484" s="3"/>
-      <c r="C484" s="3"/>
+      <c r="B483" s="9"/>
+      <c r="C483" s="9"/>
+    </row>
+    <row r="484" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B484" s="9"/>
+      <c r="C484" s="9"/>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B485" s="3"/>
-      <c r="C485" s="3"/>
-    </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
     </row>
     <row r="487" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B487" s="1"/>
-      <c r="C487" s="1"/>
+      <c r="B487" s="9"/>
+      <c r="C487" s="9"/>
     </row>
     <row r="488" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B488" s="1"/>
-      <c r="C488" s="1"/>
-    </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B489" s="3"/>
-      <c r="C489" s="3"/>
-    </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B488" s="9"/>
+      <c r="C488" s="9"/>
+    </row>
+    <row r="489" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B489" s="9"/>
+      <c r="C489" s="9"/>
+    </row>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
     </row>
-    <row r="491" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B491" s="3"/>
-      <c r="C491" s="3"/>
+    <row r="491" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B491" s="9"/>
+      <c r="C491" s="9"/>
     </row>
     <row r="492" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B492" s="3"/>
-      <c r="C492" s="3"/>
-    </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B492" s="1"/>
+      <c r="C492" s="1"/>
+    </row>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
     </row>
     <row r="494" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B494" s="1"/>
-      <c r="C494" s="1"/>
-    </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B495" s="3"/>
-      <c r="C495" s="3"/>
-    </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B494" s="9"/>
+      <c r="C494" s="9"/>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B495" s="9"/>
+      <c r="C495" s="9"/>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
     </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B497" s="3"/>
-      <c r="C497" s="3"/>
-    </row>
-    <row r="498" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="497" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B497" s="9"/>
+      <c r="C497" s="9"/>
+    </row>
+    <row r="498" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
     </row>
     <row r="499" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B499" s="1"/>
-      <c r="C499" s="1"/>
+      <c r="B499" s="9"/>
+      <c r="C499" s="9"/>
     </row>
     <row r="500" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B500" s="1"/>
-      <c r="C500" s="1"/>
+      <c r="B500" s="9"/>
+      <c r="C500" s="9"/>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B501" s="1"/>
-      <c r="C501" s="1"/>
+      <c r="B501" s="9"/>
+      <c r="C501" s="9"/>
     </row>
     <row r="502" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B502" s="1"/>
-      <c r="C502" s="1"/>
-    </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B503" s="3"/>
-      <c r="C503" s="3"/>
-    </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B502" s="9"/>
+      <c r="C502" s="9"/>
+    </row>
+    <row r="503" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B503" s="9"/>
+      <c r="C503" s="9"/>
+    </row>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
     </row>
-    <row r="505" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B505" s="3"/>
-      <c r="C505" s="3"/>
-    </row>
-    <row r="506" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="505" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B505" s="9"/>
+      <c r="C505" s="9"/>
+    </row>
+    <row r="506" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
     </row>
-    <row r="507" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B507" s="3"/>
-      <c r="C507" s="3"/>
-    </row>
-    <row r="508" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="507" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B507" s="9"/>
+      <c r="C507" s="9"/>
+    </row>
+    <row r="508" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
     </row>
     <row r="509" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B509" s="1"/>
-      <c r="C509" s="1"/>
+      <c r="B509" s="9"/>
+      <c r="C509" s="9"/>
     </row>
     <row r="510" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B510" s="1"/>
-      <c r="C510" s="1"/>
-    </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B511" s="3"/>
-      <c r="C511" s="3"/>
-    </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B510" s="9"/>
+      <c r="C510" s="9"/>
+    </row>
+    <row r="511" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B511" s="9"/>
+      <c r="C511" s="9"/>
+    </row>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
     </row>
-    <row r="513" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B513" s="3"/>
-      <c r="C513" s="3"/>
+    <row r="513" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B513" s="9"/>
+      <c r="C513" s="9"/>
     </row>
     <row r="514" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B514" s="3"/>
-      <c r="C514" s="3"/>
+      <c r="B514" s="1"/>
+      <c r="C514" s="1"/>
     </row>
     <row r="515" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B515" s="3"/>
-      <c r="C515" s="3"/>
-    </row>
-    <row r="516" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B515" s="1"/>
+      <c r="C515" s="1"/>
+    </row>
+    <row r="516" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B517" s="3"/>
-      <c r="C517" s="3"/>
-    </row>
-    <row r="518" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="517" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B517" s="9"/>
+      <c r="C517" s="9"/>
+    </row>
+    <row r="518" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
     </row>
     <row r="519" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B519" s="1"/>
-      <c r="C519" s="1"/>
-    </row>
-    <row r="520" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B520" s="3"/>
-      <c r="C520" s="3"/>
-    </row>
-    <row r="521" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B519" s="9"/>
+      <c r="C519" s="9"/>
+    </row>
+    <row r="520" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B520" s="9"/>
+      <c r="C520" s="9"/>
+    </row>
+    <row r="521" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
     </row>
-    <row r="522" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B522" s="3"/>
-      <c r="C522" s="3"/>
-    </row>
-    <row r="523" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="522" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B522" s="9"/>
+      <c r="C522" s="9"/>
+    </row>
+    <row r="523" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
     </row>
     <row r="524" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B524" s="1"/>
-      <c r="C524" s="1"/>
-    </row>
-    <row r="525" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B525" s="3"/>
-      <c r="C525" s="3"/>
+      <c r="B524" s="9"/>
+      <c r="C524" s="9"/>
+    </row>
+    <row r="525" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B525" s="9"/>
+      <c r="C525" s="9"/>
     </row>
     <row r="526" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B526" s="3"/>
-      <c r="C526" s="3"/>
-    </row>
-    <row r="527" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B526" s="1"/>
+      <c r="C526" s="1"/>
+    </row>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
     </row>
-    <row r="528" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B528" s="3"/>
-      <c r="C528" s="3"/>
-    </row>
-    <row r="529" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="528" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B528" s="9"/>
+      <c r="C528" s="9"/>
+    </row>
+    <row r="529" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
     </row>
     <row r="530" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B530" s="1"/>
-      <c r="C530" s="1"/>
+      <c r="B530" s="9"/>
+      <c r="C530" s="9"/>
     </row>
     <row r="531" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B531" s="1"/>
-      <c r="C531" s="1"/>
+      <c r="B531" s="9"/>
+      <c r="C531" s="9"/>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B532" s="1"/>
-      <c r="C532" s="1"/>
-    </row>
-    <row r="533" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B533" s="3"/>
-      <c r="C533" s="3"/>
-    </row>
-    <row r="534" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B532" s="9"/>
+      <c r="C532" s="9"/>
+    </row>
+    <row r="533" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B533" s="9"/>
+      <c r="C533" s="9"/>
+    </row>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B535" s="1"/>
-      <c r="C535" s="1"/>
+      <c r="B535" s="9"/>
+      <c r="C535" s="9"/>
     </row>
     <row r="536" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B536" s="1"/>
-      <c r="C536" s="1"/>
+      <c r="B536" s="9"/>
+      <c r="C536" s="9"/>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B537" s="1"/>
-      <c r="C537" s="1"/>
+      <c r="B537" s="9"/>
+      <c r="C537" s="9"/>
     </row>
     <row r="538" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B538" s="1"/>
-      <c r="C538" s="1"/>
+      <c r="B538" s="9"/>
+      <c r="C538" s="9"/>
     </row>
     <row r="539" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B539" s="1"/>
-      <c r="C539" s="1"/>
-    </row>
-    <row r="540" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B540" s="3"/>
-      <c r="C540" s="3"/>
-    </row>
-    <row r="541" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B539" s="9"/>
+      <c r="C539" s="9"/>
+    </row>
+    <row r="540" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B540" s="9"/>
+      <c r="C540" s="9"/>
+    </row>
+    <row r="541" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B542" s="1"/>
-      <c r="C542" s="1"/>
+      <c r="B542" s="9"/>
+      <c r="C542" s="9"/>
     </row>
     <row r="543" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B543" s="1"/>
-      <c r="C543" s="1"/>
-    </row>
-    <row r="544" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B544" s="3"/>
-      <c r="C544" s="3"/>
-    </row>
-    <row r="545" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B543" s="9"/>
+      <c r="C543" s="9"/>
+    </row>
+    <row r="544" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B544" s="9"/>
+      <c r="C544" s="9"/>
+    </row>
+    <row r="545" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B546" s="1"/>
-      <c r="C546" s="1"/>
+      <c r="B546" s="9"/>
+      <c r="C546" s="9"/>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B547" s="1"/>
-      <c r="C547" s="1"/>
+      <c r="B547" s="9"/>
+      <c r="C547" s="9"/>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B548" s="1"/>
-      <c r="C548" s="1"/>
+      <c r="B548" s="9"/>
+      <c r="C548" s="9"/>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B549" s="1"/>
-      <c r="C549" s="1"/>
+      <c r="B549" s="9"/>
+      <c r="C549" s="9"/>
     </row>
     <row r="550" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B550" s="1"/>
-      <c r="C550" s="1"/>
+      <c r="B550" s="9"/>
+      <c r="C550" s="9"/>
     </row>
     <row r="551" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B551" s="1"/>
-      <c r="C551" s="1"/>
+      <c r="B551" s="9"/>
+      <c r="C551" s="9"/>
     </row>
     <row r="552" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B552" s="1"/>
-      <c r="C552" s="1"/>
+      <c r="B552" s="9"/>
+      <c r="C552" s="9"/>
     </row>
     <row r="553" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B553" s="1"/>
-      <c r="C553" s="1"/>
+      <c r="B553" s="9"/>
+      <c r="C553" s="9"/>
     </row>
     <row r="554" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B554" s="1"/>
-      <c r="C554" s="1"/>
+      <c r="B554" s="9"/>
+      <c r="C554" s="9"/>
     </row>
     <row r="555" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B555" s="1"/>
-      <c r="C555" s="1"/>
+      <c r="B555" s="9"/>
+      <c r="C555" s="9"/>
     </row>
     <row r="556" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B556" s="1"/>
-      <c r="C556" s="1"/>
+      <c r="B556" s="9"/>
+      <c r="C556" s="9"/>
     </row>
     <row r="557" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B557" s="1"/>
-      <c r="C557" s="1"/>
+      <c r="B557" s="9"/>
+      <c r="C557" s="9"/>
     </row>
     <row r="558" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B558" s="1"/>
-      <c r="C558" s="1"/>
+      <c r="B558" s="9"/>
+      <c r="C558" s="9"/>
     </row>
     <row r="559" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B559" s="1"/>
-      <c r="C559" s="1"/>
+      <c r="B559" s="9"/>
+      <c r="C559" s="9"/>
     </row>
     <row r="560" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B560" s="1"/>
-      <c r="C560" s="1"/>
+      <c r="B560" s="9"/>
+      <c r="C560" s="9"/>
     </row>
     <row r="561" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B561" s="1"/>
-      <c r="C561" s="1"/>
+      <c r="B561" s="9"/>
+      <c r="C561" s="9"/>
     </row>
     <row r="562" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B562" s="1"/>
-      <c r="C562" s="1"/>
+      <c r="B562" s="9"/>
+      <c r="C562" s="9"/>
     </row>
     <row r="563" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B563" s="1"/>
-      <c r="C563" s="1"/>
+      <c r="B563" s="9"/>
+      <c r="C563" s="9"/>
     </row>
     <row r="564" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B564" s="1"/>
-      <c r="C564" s="1"/>
+      <c r="B564" s="9"/>
+      <c r="C564" s="9"/>
     </row>
     <row r="565" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B565" s="1"/>
-      <c r="C565" s="1"/>
+      <c r="B565" s="9"/>
+      <c r="C565" s="9"/>
     </row>
     <row r="566" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B566" s="1"/>
-      <c r="C566" s="1"/>
+      <c r="B566" s="9"/>
+      <c r="C566" s="9"/>
     </row>
     <row r="567" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B567" s="1"/>
-      <c r="C567" s="1"/>
+      <c r="B567" s="9"/>
+      <c r="C567" s="9"/>
     </row>
     <row r="568" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B568" s="1"/>
-      <c r="C568" s="1"/>
+      <c r="B568" s="9"/>
+      <c r="C568" s="9"/>
     </row>
     <row r="569" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B569" s="1"/>
-      <c r="C569" s="1"/>
+      <c r="B569" s="9"/>
+      <c r="C569" s="9"/>
     </row>
     <row r="570" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B570" s="1"/>
-      <c r="C570" s="1"/>
+      <c r="B570" s="9"/>
+      <c r="C570" s="9"/>
     </row>
     <row r="571" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B571" s="1"/>
-      <c r="C571" s="1"/>
+      <c r="B571" s="9"/>
+      <c r="C571" s="9"/>
     </row>
     <row r="572" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B572" s="1"/>
-      <c r="C572" s="1"/>
+      <c r="B572" s="9"/>
+      <c r="C572" s="9"/>
     </row>
     <row r="573" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B573" s="1"/>
-      <c r="C573" s="1"/>
-    </row>
-    <row r="574" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B574" s="3"/>
-      <c r="C574" s="3"/>
-    </row>
-    <row r="575" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B573" s="9"/>
+      <c r="C573" s="9"/>
+    </row>
+    <row r="574" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B574" s="9"/>
+      <c r="C574" s="9"/>
+    </row>
+    <row r="575" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
     </row>
-    <row r="576" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B576" s="3"/>
-      <c r="C576" s="3"/>
-    </row>
-    <row r="577" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="576" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B576" s="9"/>
+      <c r="C576" s="9"/>
+    </row>
+    <row r="577" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
     </row>
     <row r="578" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B578" s="1"/>
-      <c r="C578" s="1"/>
+      <c r="B578" s="9"/>
+      <c r="C578" s="9"/>
     </row>
     <row r="579" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B579" s="1"/>
-      <c r="C579" s="1"/>
-    </row>
-    <row r="580" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B580" s="3"/>
-      <c r="C580" s="3"/>
-    </row>
-    <row r="581" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B579" s="9"/>
+      <c r="C579" s="9"/>
+    </row>
+    <row r="580" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B580" s="9"/>
+      <c r="C580" s="9"/>
+    </row>
+    <row r="581" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B582" s="1"/>
-      <c r="C582" s="1"/>
+      <c r="B582" s="9"/>
+      <c r="C582" s="9"/>
     </row>
     <row r="583" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B583" s="1"/>
-      <c r="C583" s="1"/>
+      <c r="B583" s="9"/>
+      <c r="C583" s="9"/>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B584" s="1"/>
-      <c r="C584" s="1"/>
+      <c r="B584" s="9"/>
+      <c r="C584" s="9"/>
     </row>
     <row r="585" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B585" s="1"/>
-      <c r="C585" s="1"/>
-    </row>
-    <row r="586" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B586" s="3"/>
-      <c r="C586" s="3"/>
-    </row>
-    <row r="587" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B585" s="9"/>
+      <c r="C585" s="9"/>
+    </row>
+    <row r="586" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B586" s="9"/>
+      <c r="C586" s="9"/>
+    </row>
+    <row r="587" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
     </row>
-    <row r="588" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B588" s="3"/>
-      <c r="C588" s="3"/>
-    </row>
-    <row r="589" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="588" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B588" s="9"/>
+      <c r="C588" s="9"/>
+    </row>
+    <row r="589" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
     </row>
-    <row r="590" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B590" s="3"/>
-      <c r="C590" s="3"/>
+    <row r="590" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B590" s="9"/>
+      <c r="C590" s="9"/>
     </row>
     <row r="591" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B591" s="3"/>
-      <c r="C591" s="3"/>
-    </row>
-    <row r="592" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B591" s="1"/>
+      <c r="C591" s="1"/>
+    </row>
+    <row r="592" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
     </row>
     <row r="593" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B593" s="1"/>
-      <c r="C593" s="1"/>
-    </row>
-    <row r="594" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B594" s="3"/>
-      <c r="C594" s="3"/>
-    </row>
-    <row r="595" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B593" s="9"/>
+      <c r="C593" s="9"/>
+    </row>
+    <row r="594" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B594" s="9"/>
+      <c r="C594" s="9"/>
+    </row>
+    <row r="595" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
     </row>
-    <row r="596" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B596" s="3"/>
-      <c r="C596" s="3"/>
+    <row r="596" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B596" s="9"/>
+      <c r="C596" s="9"/>
     </row>
     <row r="597" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B597" s="3"/>
-      <c r="C597" s="3"/>
-    </row>
-    <row r="598" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B597" s="1"/>
+      <c r="C597" s="1"/>
+    </row>
+    <row r="598" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
     </row>
     <row r="599" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B599" s="1"/>
-      <c r="C599" s="1"/>
+      <c r="B599" s="9"/>
+      <c r="C599" s="9"/>
     </row>
     <row r="600" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B600" s="1"/>
-      <c r="C600" s="1"/>
+      <c r="B600" s="9"/>
+      <c r="C600" s="9"/>
     </row>
     <row r="601" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B601" s="1"/>
-      <c r="C601" s="1"/>
+      <c r="B601" s="9"/>
+      <c r="C601" s="9"/>
     </row>
     <row r="602" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B602" s="1"/>
-      <c r="C602" s="1"/>
+      <c r="B602" s="9"/>
+      <c r="C602" s="9"/>
     </row>
     <row r="603" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B603" s="1"/>
-      <c r="C603" s="1"/>
-    </row>
-    <row r="604" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B604" s="3"/>
-      <c r="C604" s="3"/>
-    </row>
-    <row r="605" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B603" s="9"/>
+      <c r="C603" s="9"/>
+    </row>
+    <row r="604" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B604" s="9"/>
+      <c r="C604" s="9"/>
+    </row>
+    <row r="605" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
     </row>
     <row r="606" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B606" s="1"/>
-      <c r="C606" s="1"/>
-    </row>
-    <row r="607" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B607" s="3"/>
-      <c r="C607" s="3"/>
-    </row>
-    <row r="608" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B606" s="9"/>
+      <c r="C606" s="9"/>
+    </row>
+    <row r="607" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B607" s="9"/>
+      <c r="C607" s="9"/>
+    </row>
+    <row r="608" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
     </row>
     <row r="609" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B609" s="1"/>
-      <c r="C609" s="1"/>
+      <c r="B609" s="9"/>
+      <c r="C609" s="9"/>
     </row>
     <row r="610" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B610" s="1"/>
-      <c r="C610" s="1"/>
+      <c r="B610" s="9"/>
+      <c r="C610" s="9"/>
     </row>
     <row r="611" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B611" s="2"/>
-      <c r="C611" s="1"/>
+      <c r="B611" s="9"/>
+      <c r="C611" s="9"/>
+    </row>
+    <row r="612" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B612" s="10"/>
+      <c r="C612" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/gametabledata/localizationdata.xlsx
+++ b/gametabledata/localizationdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,40 @@
   </si>
   <si>
     <t>Nicknames can range from 2 to 10 characters</t>
+  </si>
+  <si>
+    <t>게임 클리어!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Clear!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 중 입니다</t>
+  </si>
+  <si>
+    <t>Coming soon</t>
   </si>
 </sst>
 </file>
@@ -566,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C612"/>
+  <dimension ref="A1:C614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -725,103 +759,130 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="3">
+        <v>1005</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="3">
+        <v>1006</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
         <v>10001</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16" s="4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="4">
         <v>10002</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="3">
-        <v>10003</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
-        <v>10004</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
+        <v>10003</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="3">
+        <v>10004</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="3">
         <v>10005</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="3">
+        <v>10006</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="3">
+        <v>10007</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B30" s="9"/>
@@ -835,9 +896,9 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34" s="9"/>
@@ -851,9 +912,9 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B38" s="9"/>
@@ -863,9 +924,9 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B41" s="9"/>
@@ -879,9 +940,9 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B45" s="9"/>
@@ -891,9 +952,9 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B48" s="9"/>
@@ -903,17 +964,17 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B53" s="9"/>
@@ -975,21 +1036,21 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B72" s="9"/>
@@ -999,29 +1060,29 @@
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B80" s="9"/>
@@ -1043,9 +1104,9 @@
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B86" s="9"/>
@@ -1063,17 +1124,17 @@
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B93" s="9"/>
@@ -1103,25 +1164,25 @@
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B105" s="9"/>
@@ -1135,9 +1196,9 @@
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B109" s="9"/>
@@ -1147,21 +1208,21 @@
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
@@ -1171,9 +1232,9 @@
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
@@ -1183,9 +1244,9 @@
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B121" s="9"/>
@@ -1219,9 +1280,9 @@
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B130" s="9"/>
@@ -1243,9 +1304,9 @@
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B136" s="9"/>
@@ -1259,25 +1320,25 @@
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B144" s="9"/>
@@ -1291,9 +1352,9 @@
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B148" s="9"/>
@@ -1339,57 +1400,57 @@
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B172" s="9"/>
@@ -1403,17 +1464,17 @@
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B175" s="9"/>
-      <c r="C175" s="9"/>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B178" s="9"/>
@@ -1423,37 +1484,37 @@
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B185" s="9"/>
+      <c r="C185" s="9"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B188" s="9"/>
@@ -1487,21 +1548,21 @@
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B196" s="9"/>
+      <c r="C196" s="9"/>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B197" s="9"/>
+      <c r="C197" s="9"/>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B200" s="9"/>
@@ -1511,21 +1572,21 @@
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B202" s="9"/>
+      <c r="C202" s="9"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B205" s="9"/>
+      <c r="C205" s="9"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B206" s="9"/>
@@ -1547,9 +1608,9 @@
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B212" s="9"/>
@@ -1563,17 +1624,17 @@
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B215" s="9"/>
+      <c r="C215" s="9"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B218" s="9"/>
@@ -1607,17 +1668,17 @@
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B226" s="9"/>
+      <c r="C226" s="9"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B228" s="9"/>
-      <c r="C228" s="9"/>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B229" s="9"/>
@@ -1699,33 +1760,33 @@
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B249" s="9"/>
+      <c r="C249" s="9"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B251" s="9"/>
-      <c r="C251" s="9"/>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B253" s="9"/>
+      <c r="C253" s="9"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B255" s="9"/>
-      <c r="C255" s="9"/>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B256" s="9"/>
@@ -1743,17 +1804,17 @@
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B262" s="9"/>
-      <c r="C262" s="9"/>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B260" s="9"/>
+      <c r="C260" s="9"/>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B261" s="9"/>
+      <c r="C261" s="9"/>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="1"/>
@@ -1763,9 +1824,9 @@
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B265" s="9"/>
-      <c r="C265" s="9"/>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B266" s="9"/>
@@ -1835,17 +1896,17 @@
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B283" s="9"/>
+      <c r="C283" s="9"/>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B285" s="9"/>
-      <c r="C285" s="9"/>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B286" s="9"/>
@@ -1855,17 +1916,17 @@
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B288" s="1"/>
-      <c r="C288" s="1"/>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B288" s="9"/>
+      <c r="C288" s="9"/>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B290" s="9"/>
-      <c r="C290" s="9"/>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B291" s="9"/>
@@ -1915,17 +1976,17 @@
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B303" s="1"/>
-      <c r="C303" s="1"/>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B303" s="9"/>
+      <c r="C303" s="9"/>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B305" s="9"/>
-      <c r="C305" s="9"/>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B306" s="9"/>
@@ -1943,9 +2004,9 @@
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B310" s="1"/>
-      <c r="C310" s="1"/>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B310" s="9"/>
+      <c r="C310" s="9"/>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B311" s="9"/>
@@ -1959,9 +2020,9 @@
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B314" s="9"/>
-      <c r="C314" s="9"/>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B315" s="9"/>
@@ -1983,17 +2044,17 @@
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B320" s="1"/>
-      <c r="C320" s="1"/>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B320" s="9"/>
+      <c r="C320" s="9"/>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B322" s="9"/>
-      <c r="C322" s="9"/>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B323" s="9"/>
@@ -2007,9 +2068,9 @@
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B326" s="1"/>
-      <c r="C326" s="1"/>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B326" s="9"/>
+      <c r="C326" s="9"/>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B327" s="9"/>
@@ -2023,9 +2084,9 @@
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B330" s="9"/>
-      <c r="C330" s="9"/>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B331" s="9"/>
@@ -2047,17 +2108,17 @@
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B336" s="1"/>
-      <c r="C336" s="1"/>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B336" s="9"/>
+      <c r="C336" s="9"/>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B338" s="9"/>
-      <c r="C338" s="9"/>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B339" s="9"/>
@@ -2091,21 +2152,21 @@
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B347" s="1"/>
-      <c r="C347" s="1"/>
-    </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B348" s="1"/>
-      <c r="C348" s="1"/>
-    </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B349" s="9"/>
-      <c r="C349" s="9"/>
-    </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B350" s="9"/>
-      <c r="C350" s="9"/>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B347" s="9"/>
+      <c r="C347" s="9"/>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B348" s="9"/>
+      <c r="C348" s="9"/>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B351" s="9"/>
@@ -2139,33 +2200,33 @@
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
     </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B359" s="1"/>
-      <c r="C359" s="1"/>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B359" s="9"/>
+      <c r="C359" s="9"/>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B361" s="9"/>
-      <c r="C361" s="9"/>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B363" s="1"/>
-      <c r="C363" s="1"/>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B363" s="9"/>
+      <c r="C363" s="9"/>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
     </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B365" s="9"/>
-      <c r="C365" s="9"/>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B366" s="9"/>
@@ -2179,49 +2240,49 @@
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B369" s="1"/>
-      <c r="C369" s="1"/>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B369" s="9"/>
+      <c r="C369" s="9"/>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
     </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B371" s="9"/>
-      <c r="C371" s="9"/>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
     </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B373" s="1"/>
-      <c r="C373" s="1"/>
-    </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B374" s="1"/>
-      <c r="C374" s="1"/>
-    </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B375" s="9"/>
-      <c r="C375" s="9"/>
-    </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B376" s="9"/>
-      <c r="C376" s="9"/>
-    </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B377" s="1"/>
-      <c r="C377" s="1"/>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B373" s="9"/>
+      <c r="C373" s="9"/>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B374" s="9"/>
+      <c r="C374" s="9"/>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B377" s="9"/>
+      <c r="C377" s="9"/>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
     </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B379" s="9"/>
-      <c r="C379" s="9"/>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B380" s="9"/>
@@ -2235,17 +2296,17 @@
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
     </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B383" s="1"/>
-      <c r="C383" s="1"/>
-    </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B384" s="1"/>
-      <c r="C384" s="1"/>
-    </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B385" s="9"/>
-      <c r="C385" s="9"/>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B383" s="9"/>
+      <c r="C383" s="9"/>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B384" s="9"/>
+      <c r="C384" s="9"/>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B386" s="1"/>
@@ -2255,9 +2316,9 @@
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
     </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B388" s="9"/>
-      <c r="C388" s="9"/>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
     </row>
     <row r="389" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B389" s="9"/>
@@ -2267,17 +2328,17 @@
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B391" s="1"/>
-      <c r="C391" s="1"/>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B392" s="1"/>
-      <c r="C392" s="1"/>
-    </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B393" s="9"/>
-      <c r="C393" s="9"/>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B391" s="9"/>
+      <c r="C391" s="9"/>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B392" s="9"/>
+      <c r="C392" s="9"/>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
     </row>
     <row r="394" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B394" s="1"/>
@@ -2295,9 +2356,9 @@
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
     </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B398" s="9"/>
-      <c r="C398" s="9"/>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
     </row>
     <row r="399" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B399" s="9"/>
@@ -2331,17 +2392,17 @@
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
     </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B407" s="1"/>
-      <c r="C407" s="1"/>
-    </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B408" s="1"/>
-      <c r="C408" s="1"/>
-    </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B409" s="9"/>
-      <c r="C409" s="9"/>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B407" s="9"/>
+      <c r="C407" s="9"/>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B408" s="9"/>
+      <c r="C408" s="9"/>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
     </row>
     <row r="410" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B410" s="1"/>
@@ -2351,9 +2412,9 @@
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
     </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B412" s="9"/>
-      <c r="C412" s="9"/>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
     </row>
     <row r="413" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B413" s="9"/>
@@ -2363,17 +2424,17 @@
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
     </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B415" s="1"/>
-      <c r="C415" s="1"/>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B415" s="9"/>
+      <c r="C415" s="9"/>
     </row>
     <row r="416" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
     </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B417" s="9"/>
-      <c r="C417" s="9"/>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
     </row>
     <row r="418" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B418" s="9"/>
@@ -2383,17 +2444,17 @@
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
     </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B420" s="1"/>
-      <c r="C420" s="1"/>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B420" s="9"/>
+      <c r="C420" s="9"/>
     </row>
     <row r="421" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B422" s="9"/>
-      <c r="C422" s="9"/>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
     </row>
     <row r="423" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B423" s="9"/>
@@ -2407,21 +2468,21 @@
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
     </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B426" s="1"/>
-      <c r="C426" s="1"/>
-    </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B427" s="1"/>
-      <c r="C427" s="1"/>
-    </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B428" s="9"/>
-      <c r="C428" s="9"/>
-    </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B429" s="9"/>
-      <c r="C429" s="9"/>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B426" s="9"/>
+      <c r="C426" s="9"/>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B427" s="9"/>
+      <c r="C427" s="9"/>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B428" s="1"/>
+      <c r="C428" s="1"/>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B429" s="1"/>
+      <c r="C429" s="1"/>
     </row>
     <row r="430" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B430" s="9"/>
@@ -2435,17 +2496,17 @@
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
     </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B433" s="1"/>
-      <c r="C433" s="1"/>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B433" s="9"/>
+      <c r="C433" s="9"/>
     </row>
     <row r="434" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
     </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B435" s="9"/>
-      <c r="C435" s="9"/>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
     </row>
     <row r="436" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B436" s="9"/>
@@ -2455,21 +2516,21 @@
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
     </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B438" s="1"/>
-      <c r="C438" s="1"/>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B438" s="9"/>
+      <c r="C438" s="9"/>
     </row>
     <row r="439" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
     </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B440" s="9"/>
-      <c r="C440" s="9"/>
-    </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B441" s="1"/>
-      <c r="C441" s="1"/>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B441" s="9"/>
+      <c r="C441" s="9"/>
     </row>
     <row r="442" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B442" s="9"/>
@@ -2483,33 +2544,33 @@
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
     </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B445" s="9"/>
-      <c r="C445" s="9"/>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
     </row>
     <row r="446" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
     </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B447" s="1"/>
-      <c r="C447" s="1"/>
-    </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B448" s="1"/>
-      <c r="C448" s="1"/>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B447" s="9"/>
+      <c r="C447" s="9"/>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B448" s="9"/>
+      <c r="C448" s="9"/>
     </row>
     <row r="449" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
     </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B450" s="9"/>
-      <c r="C450" s="9"/>
-    </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B451" s="9"/>
-      <c r="C451" s="9"/>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
     </row>
     <row r="452" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B452" s="9"/>
@@ -2539,17 +2600,17 @@
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B459" s="1"/>
-      <c r="C459" s="1"/>
+    <row r="459" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B459" s="9"/>
+      <c r="C459" s="9"/>
     </row>
     <row r="460" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
     </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B461" s="9"/>
-      <c r="C461" s="9"/>
+    <row r="461" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B461" s="1"/>
+      <c r="C461" s="1"/>
     </row>
     <row r="462" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B462" s="9"/>
@@ -2559,17 +2620,17 @@
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
     </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B464" s="1"/>
-      <c r="C464" s="1"/>
-    </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B465" s="1"/>
-      <c r="C465" s="1"/>
-    </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B466" s="9"/>
-      <c r="C466" s="9"/>
+    <row r="464" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B464" s="9"/>
+      <c r="C464" s="9"/>
+    </row>
+    <row r="465" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B465" s="9"/>
+      <c r="C465" s="9"/>
+    </row>
+    <row r="466" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B466" s="1"/>
+      <c r="C466" s="1"/>
     </row>
     <row r="467" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B467" s="1"/>
@@ -2579,25 +2640,25 @@
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B469" s="9"/>
-      <c r="C469" s="9"/>
-    </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B470" s="1"/>
-      <c r="C470" s="1"/>
+    <row r="469" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B469" s="1"/>
+      <c r="C469" s="1"/>
+    </row>
+    <row r="470" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B470" s="9"/>
+      <c r="C470" s="9"/>
     </row>
     <row r="471" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B472" s="9"/>
-      <c r="C472" s="9"/>
-    </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B473" s="1"/>
-      <c r="C473" s="1"/>
+    <row r="472" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B472" s="1"/>
+      <c r="C472" s="1"/>
+    </row>
+    <row r="473" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B473" s="9"/>
+      <c r="C473" s="9"/>
     </row>
     <row r="474" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B474" s="9"/>
@@ -2611,61 +2672,61 @@
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B477" s="9"/>
-      <c r="C477" s="9"/>
-    </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B478" s="1"/>
-      <c r="C478" s="1"/>
+    <row r="477" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B477" s="1"/>
+      <c r="C477" s="1"/>
+    </row>
+    <row r="478" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B478" s="9"/>
+      <c r="C478" s="9"/>
     </row>
     <row r="479" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
     </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B480" s="9"/>
-      <c r="C480" s="9"/>
-    </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B481" s="1"/>
-      <c r="C481" s="1"/>
+    <row r="480" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
+    </row>
+    <row r="481" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B481" s="9"/>
+      <c r="C481" s="9"/>
     </row>
     <row r="482" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
     </row>
-    <row r="483" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B483" s="9"/>
-      <c r="C483" s="9"/>
+    <row r="483" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B483" s="1"/>
+      <c r="C483" s="1"/>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
     </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B485" s="1"/>
-      <c r="C485" s="1"/>
-    </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B486" s="1"/>
-      <c r="C486" s="1"/>
-    </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B487" s="9"/>
-      <c r="C487" s="9"/>
-    </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B488" s="9"/>
-      <c r="C488" s="9"/>
+    <row r="485" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B485" s="9"/>
+      <c r="C485" s="9"/>
+    </row>
+    <row r="486" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B486" s="9"/>
+      <c r="C486" s="9"/>
+    </row>
+    <row r="487" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B487" s="1"/>
+      <c r="C487" s="1"/>
+    </row>
+    <row r="488" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
     </row>
     <row r="489" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
     </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B490" s="1"/>
-      <c r="C490" s="1"/>
+    <row r="490" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B490" s="9"/>
+      <c r="C490" s="9"/>
     </row>
     <row r="491" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B491" s="9"/>
@@ -2675,21 +2736,21 @@
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
     </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B493" s="1"/>
-      <c r="C493" s="1"/>
-    </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B494" s="9"/>
-      <c r="C494" s="9"/>
-    </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B495" s="9"/>
-      <c r="C495" s="9"/>
-    </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B496" s="1"/>
-      <c r="C496" s="1"/>
+    <row r="493" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B493" s="9"/>
+      <c r="C493" s="9"/>
+    </row>
+    <row r="494" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B494" s="1"/>
+      <c r="C494" s="1"/>
+    </row>
+    <row r="495" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B495" s="1"/>
+      <c r="C495" s="1"/>
+    </row>
+    <row r="496" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B496" s="9"/>
+      <c r="C496" s="9"/>
     </row>
     <row r="497" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B497" s="9"/>
@@ -2703,9 +2764,9 @@
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
     </row>
-    <row r="500" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B500" s="9"/>
-      <c r="C500" s="9"/>
+    <row r="500" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B500" s="1"/>
+      <c r="C500" s="1"/>
     </row>
     <row r="501" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B501" s="9"/>
@@ -2719,9 +2780,9 @@
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
     </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B504" s="1"/>
-      <c r="C504" s="1"/>
+    <row r="504" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B504" s="9"/>
+      <c r="C504" s="9"/>
     </row>
     <row r="505" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B505" s="9"/>
@@ -2743,17 +2804,17 @@
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
     </row>
-    <row r="510" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B510" s="9"/>
-      <c r="C510" s="9"/>
+    <row r="510" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B510" s="1"/>
+      <c r="C510" s="1"/>
     </row>
     <row r="511" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
     </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B512" s="1"/>
-      <c r="C512" s="1"/>
+    <row r="512" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B512" s="9"/>
+      <c r="C512" s="9"/>
     </row>
     <row r="513" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B513" s="9"/>
@@ -2763,17 +2824,17 @@
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
     </row>
-    <row r="515" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B515" s="1"/>
-      <c r="C515" s="1"/>
+    <row r="515" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B515" s="9"/>
+      <c r="C515" s="9"/>
     </row>
     <row r="516" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
     </row>
-    <row r="517" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B517" s="9"/>
-      <c r="C517" s="9"/>
+    <row r="517" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B517" s="1"/>
+      <c r="C517" s="1"/>
     </row>
     <row r="518" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B518" s="1"/>
@@ -2783,13 +2844,13 @@
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
     </row>
-    <row r="520" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B520" s="9"/>
-      <c r="C520" s="9"/>
-    </row>
-    <row r="521" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B521" s="1"/>
-      <c r="C521" s="1"/>
+    <row r="520" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B520" s="1"/>
+      <c r="C520" s="1"/>
+    </row>
+    <row r="521" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B521" s="9"/>
+      <c r="C521" s="9"/>
     </row>
     <row r="522" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B522" s="9"/>
@@ -2803,21 +2864,21 @@
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
     </row>
-    <row r="525" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B525" s="9"/>
-      <c r="C525" s="9"/>
-    </row>
-    <row r="526" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B526" s="1"/>
-      <c r="C526" s="1"/>
-    </row>
-    <row r="527" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B527" s="1"/>
-      <c r="C527" s="1"/>
-    </row>
-    <row r="528" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B528" s="9"/>
-      <c r="C528" s="9"/>
+    <row r="525" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B525" s="1"/>
+      <c r="C525" s="1"/>
+    </row>
+    <row r="526" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B526" s="9"/>
+      <c r="C526" s="9"/>
+    </row>
+    <row r="527" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B527" s="9"/>
+      <c r="C527" s="9"/>
+    </row>
+    <row r="528" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B528" s="1"/>
+      <c r="C528" s="1"/>
     </row>
     <row r="529" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B529" s="1"/>
@@ -2827,9 +2888,9 @@
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
     </row>
-    <row r="531" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B531" s="9"/>
-      <c r="C531" s="9"/>
+    <row r="531" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B531" s="1"/>
+      <c r="C531" s="1"/>
     </row>
     <row r="532" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B532" s="9"/>
@@ -2839,17 +2900,17 @@
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
     </row>
-    <row r="534" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B534" s="1"/>
-      <c r="C534" s="1"/>
+    <row r="534" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B534" s="9"/>
+      <c r="C534" s="9"/>
     </row>
     <row r="535" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
     </row>
-    <row r="536" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B536" s="9"/>
-      <c r="C536" s="9"/>
+    <row r="536" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B536" s="1"/>
+      <c r="C536" s="1"/>
     </row>
     <row r="537" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B537" s="9"/>
@@ -2867,33 +2928,33 @@
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
     </row>
-    <row r="541" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B541" s="1"/>
-      <c r="C541" s="1"/>
+    <row r="541" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B541" s="9"/>
+      <c r="C541" s="9"/>
     </row>
     <row r="542" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
     </row>
-    <row r="543" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B543" s="9"/>
-      <c r="C543" s="9"/>
+    <row r="543" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B543" s="1"/>
+      <c r="C543" s="1"/>
     </row>
     <row r="544" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
     </row>
-    <row r="545" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B545" s="1"/>
-      <c r="C545" s="1"/>
+    <row r="545" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B545" s="9"/>
+      <c r="C545" s="9"/>
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
     </row>
-    <row r="547" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B547" s="9"/>
-      <c r="C547" s="9"/>
+    <row r="547" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B547" s="1"/>
+      <c r="C547" s="1"/>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B548" s="9"/>
@@ -3003,9 +3064,9 @@
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
     </row>
-    <row r="575" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B575" s="1"/>
-      <c r="C575" s="1"/>
+    <row r="575" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B575" s="9"/>
+      <c r="C575" s="9"/>
     </row>
     <row r="576" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B576" s="9"/>
@@ -3019,25 +3080,25 @@
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
     </row>
-    <row r="579" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B579" s="9"/>
-      <c r="C579" s="9"/>
+    <row r="579" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B579" s="1"/>
+      <c r="C579" s="1"/>
     </row>
     <row r="580" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
     </row>
-    <row r="581" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B581" s="1"/>
-      <c r="C581" s="1"/>
+    <row r="581" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B581" s="9"/>
+      <c r="C581" s="9"/>
     </row>
     <row r="582" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
     </row>
-    <row r="583" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B583" s="9"/>
-      <c r="C583" s="9"/>
+    <row r="583" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B583" s="1"/>
+      <c r="C583" s="1"/>
     </row>
     <row r="584" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B584" s="9"/>
@@ -3051,9 +3112,9 @@
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
     </row>
-    <row r="587" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B587" s="1"/>
-      <c r="C587" s="1"/>
+    <row r="587" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B587" s="9"/>
+      <c r="C587" s="9"/>
     </row>
     <row r="588" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B588" s="9"/>
@@ -3071,21 +3132,21 @@
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
     </row>
-    <row r="592" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B592" s="1"/>
-      <c r="C592" s="1"/>
-    </row>
-    <row r="593" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B593" s="9"/>
-      <c r="C593" s="9"/>
-    </row>
-    <row r="594" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B594" s="9"/>
-      <c r="C594" s="9"/>
-    </row>
-    <row r="595" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B595" s="1"/>
-      <c r="C595" s="1"/>
+    <row r="592" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B592" s="9"/>
+      <c r="C592" s="9"/>
+    </row>
+    <row r="593" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B593" s="1"/>
+      <c r="C593" s="1"/>
+    </row>
+    <row r="594" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B594" s="1"/>
+      <c r="C594" s="1"/>
+    </row>
+    <row r="595" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B595" s="9"/>
+      <c r="C595" s="9"/>
     </row>
     <row r="596" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B596" s="9"/>
@@ -3095,17 +3156,17 @@
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
     </row>
-    <row r="598" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B598" s="1"/>
-      <c r="C598" s="1"/>
-    </row>
-    <row r="599" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B599" s="9"/>
-      <c r="C599" s="9"/>
-    </row>
-    <row r="600" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B600" s="9"/>
-      <c r="C600" s="9"/>
+    <row r="598" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B598" s="9"/>
+      <c r="C598" s="9"/>
+    </row>
+    <row r="599" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B599" s="1"/>
+      <c r="C599" s="1"/>
+    </row>
+    <row r="600" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B600" s="1"/>
+      <c r="C600" s="1"/>
     </row>
     <row r="601" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B601" s="9"/>
@@ -3123,37 +3184,45 @@
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
     </row>
-    <row r="605" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B605" s="1"/>
-      <c r="C605" s="1"/>
+    <row r="605" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B605" s="9"/>
+      <c r="C605" s="9"/>
     </row>
     <row r="606" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
     </row>
-    <row r="607" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B607" s="9"/>
-      <c r="C607" s="9"/>
-    </row>
-    <row r="608" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B608" s="1"/>
-      <c r="C608" s="1"/>
+    <row r="607" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B607" s="1"/>
+      <c r="C607" s="1"/>
+    </row>
+    <row r="608" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B608" s="9"/>
+      <c r="C608" s="9"/>
     </row>
     <row r="609" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
     </row>
-    <row r="610" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B610" s="9"/>
-      <c r="C610" s="9"/>
+    <row r="610" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B610" s="1"/>
+      <c r="C610" s="1"/>
     </row>
     <row r="611" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
     </row>
     <row r="612" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B612" s="10"/>
+      <c r="B612" s="9"/>
       <c r="C612" s="9"/>
+    </row>
+    <row r="613" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B613" s="9"/>
+      <c r="C613" s="9"/>
+    </row>
+    <row r="614" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B614" s="10"/>
+      <c r="C614" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
